--- a/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOSHITOMI\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Delivery Online\Entregables\Ultima Presentacion\Area PPQA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$44</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -52,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -62,7 +67,7 @@
     <author>kmelendez</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,6 +83,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -95,7 +101,7 @@
     <author>GMD</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,13 +114,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Las acciones realizadas para solucionar la no conformidad
 ó
@@ -122,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1">
+    <comment ref="M4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,6 +151,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>GMD:</t>
         </r>
@@ -152,6 +160,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (dd/mm/yyyy)</t>
@@ -163,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="245">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -293,9 +302,6 @@
   </si>
   <si>
     <t>Nro de revisiones Ejecutadas:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
   </si>
   <si>
     <t>Objetivo</t>
@@ -515,9 +521,6 @@
     <t>Revisado Analista responsable</t>
   </si>
   <si>
-    <t>Adecuación de Software Factory Unidad Mantenimiento Evolutivo Front End.</t>
-  </si>
-  <si>
     <t>Jefe de Fábrica:</t>
   </si>
   <si>
@@ -647,39 +650,9 @@
     <t>Base de Datos</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
-    <t>Diseño</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 1</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2</t>
-  </si>
-  <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
     <t>Desarrollo de Sistemas</t>
   </si>
   <si>
-    <t>Diagrama de casos de uso</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>Diagrama no cumple los estándares</t>
-  </si>
-  <si>
     <t>Revisado / Auditado</t>
   </si>
   <si>
@@ -689,64 +662,273 @@
     <t>Responsable (s) de levantar no conformidad</t>
   </si>
   <si>
-    <t>Diagrama de Clases</t>
-  </si>
-  <si>
-    <t>No habia disponibilidad de repositorio bitbucket</t>
-  </si>
-  <si>
     <t>Entregable / Proceso revisado</t>
   </si>
   <si>
     <t>Entregable / Proceso</t>
   </si>
   <si>
-    <t>Proceso de gestion de proyecto</t>
-  </si>
-  <si>
-    <t>No se actualiza los documentos en el repositorio</t>
-  </si>
-  <si>
     <t>Proceso</t>
   </si>
   <si>
-    <t>Documento está con defectos de fondo</t>
-  </si>
-  <si>
-    <t>La aplicación no cubre el requerimiento 1.1</t>
-  </si>
-  <si>
-    <t>Los datos no guardan integridad. (Data basura)</t>
-  </si>
-  <si>
-    <t>El código no guarda los estándares.  El doc. De análisis no guarda estándares definidos</t>
-  </si>
-  <si>
-    <t>La nomneclatura /  la carpeta donde se guarda el entregable no es correcta  /  no está correcta la información de historial de revisiones.</t>
-  </si>
-  <si>
-    <t>Sergio Barrantes</t>
-  </si>
-  <si>
     <t>Manuel Saenz</t>
   </si>
   <si>
     <t>FPPQA.R06 Herramienta de Gestión QA-Producto</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 12/02/2012</t>
+    <t xml:space="preserve"> HGPRD_0.1_2014 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>PP_PMC</t>
+  </si>
+  <si>
+    <t>REQM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>YM</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto:</t>
+  </si>
+  <si>
+    <t>Yoshitomi Maehara
+(Jefe de Proyecto)</t>
+  </si>
+  <si>
+    <t>Adecuacion de Software de delivery Online</t>
+  </si>
+  <si>
+    <t>HM, JG, RR</t>
+  </si>
+  <si>
+    <t>ICIC</t>
+  </si>
+  <si>
+    <t>HGPRD_Herramienta de Gestión QA PPQA</t>
+  </si>
+  <si>
+    <t>PAC_Proceso de Aseguramiento de la Calidad PPQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSPI_Matriz seguimiento Proyectos Internos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHKPRO_Checklist Proyecto </t>
+  </si>
+  <si>
+    <t>NUMNC_Métrica NUMNC</t>
+  </si>
+  <si>
+    <t>Incluir Analista Programador</t>
+  </si>
+  <si>
+    <t>PP_PMC/PGPRO</t>
+  </si>
+  <si>
+    <t>PP_PMC/PPRO</t>
+  </si>
+  <si>
+    <t>REQM/LMR</t>
+  </si>
+  <si>
+    <t>Analizar si se considerara modulo de administrador</t>
+  </si>
+  <si>
+    <t>PPQA/PAC</t>
+  </si>
+  <si>
+    <t>Llenar la lista de usuarios con los roles</t>
+  </si>
+  <si>
+    <t>YM,JG,RR,BC,HM</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>Documento de diseño</t>
+  </si>
+  <si>
+    <t>Documento de analisis</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 12/07/2014</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>GESTION DE LA CONFIGURACION</t>
+  </si>
+  <si>
+    <t>CPRO_Cronograma de Proyecto de Delivery</t>
+  </si>
+  <si>
+    <t>PGPRO_Proceso de gestion de proyectos</t>
+  </si>
+  <si>
+    <t>PPRO_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>REGR_Registro de Riesgos</t>
+  </si>
+  <si>
+    <t>EXPRI_Metrica PP-PMC</t>
+  </si>
+  <si>
+    <t>PGREQM_Proceso Gestion Requerimientos</t>
+  </si>
+  <si>
+    <t>LMR_Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>MTREQM_Matriz de trazabilidad de requerimientos a documentos</t>
+  </si>
+  <si>
+    <t>SCREQM_Solicitud a cambios de requerimientos</t>
+  </si>
+  <si>
+    <t>RCR_Registro Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>VREQM_Volatilidad de requerimientos</t>
+  </si>
+  <si>
+    <t>TM_0.1_2014_Tablero de Metrica</t>
+  </si>
+  <si>
+    <t>MPP_PMC_0_1_2014_ Indice cambios items configuracion</t>
+  </si>
+  <si>
+    <t>PGC_Proceso de Gestion de Configuracion</t>
+  </si>
+  <si>
+    <t>REGITCON_ Registro de Items de Configuración</t>
+  </si>
+  <si>
+    <t>SOLACC_Solicitudes de Acceso</t>
+  </si>
+  <si>
+    <t>PP_PMC/CPRO</t>
+  </si>
+  <si>
+    <t>Corregir las fechas planficacion de acuerdo al avance de la ultima presentacion</t>
+  </si>
+  <si>
+    <t>Cambiar la descripcion de los procesos de negocios</t>
+  </si>
+  <si>
+    <t>PP_PMC/Documento de diseño</t>
+  </si>
+  <si>
+    <t>PP_PMC/Documento de analisis</t>
+  </si>
+  <si>
+    <t>Cambiar la especificaciones funcionales</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>PP_PMC/REGR</t>
+  </si>
+  <si>
+    <t>Actualizar la fuente de informacion</t>
+  </si>
+  <si>
+    <t>REQM/PGREQM</t>
+  </si>
+  <si>
+    <t>Actualizar los roles y responsabilidades</t>
+  </si>
+  <si>
+    <t>Modificar modulo de pagos: Mensaje de confirmacion de envio</t>
+  </si>
+  <si>
+    <t>REQM/MTREQM</t>
+  </si>
+  <si>
+    <t>Actulizar la Descripción de requerimiento de usuario</t>
+  </si>
+  <si>
+    <t>REQM/SCREQM</t>
+  </si>
+  <si>
+    <t>Completar Solicitud de cambios de requerimientos</t>
+  </si>
+  <si>
+    <t>MA/TM_0.1_2014</t>
+  </si>
+  <si>
+    <t>GESTION DE LA CONFIGURACION/MPP_PMC</t>
+  </si>
+  <si>
+    <t>MA/ICIC</t>
+  </si>
+  <si>
+    <t>GESTION DE LA CONFIGURACION/SOLACC</t>
+  </si>
+  <si>
+    <t>GESTION DE LA CONFIGURACION/REGITCON</t>
+  </si>
+  <si>
+    <t>GESTION DE LA CONFIGURACION/PGC</t>
+  </si>
+  <si>
+    <t>PPQA/CHKPRO</t>
+  </si>
+  <si>
+    <t>PPQA/MSPI</t>
+  </si>
+  <si>
+    <t>PPQA/NUMNC</t>
+  </si>
+  <si>
+    <t>PPQA/HGPRD</t>
+  </si>
+  <si>
+    <t>REQM/VREQM</t>
+  </si>
+  <si>
+    <t>REQM/RCR</t>
+  </si>
+  <si>
+    <t>REQM/EXPRI</t>
+  </si>
+  <si>
+    <t>No hay no conformidades</t>
+  </si>
+  <si>
+    <t>Actualizar Roles y responsabilidades</t>
+  </si>
+  <si>
+    <t>Actualizar la tabla de base de datos y actualizar el numero de productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -754,6 +936,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -763,6 +946,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -811,11 +995,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
@@ -825,11 +1004,13 @@
     <font>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -848,6 +1029,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1042,6 +1224,7 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1099,8 +1282,44 @@
       <sz val="9"/>
       <name val="Geneva"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
       </patternFill>
@@ -1243,7 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,41 +1998,41 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1811,16 +2042,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1861,21 +2092,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1899,14 +2130,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1917,7 +2148,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1935,10 +2166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1953,14 +2180,17 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1976,7 +2206,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,7 +2221,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2002,27 +2232,27 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2104,7 +2334,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
@@ -2119,12 +2349,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="36" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,30 +2376,26 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="49" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="49" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2188,44 +2414,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="24" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="25" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="25" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="58" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="24" borderId="29" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2244,11 +2458,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2268,26 +2482,180 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="62" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="62" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2313,7 +2681,7 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
@@ -2322,39 +2690,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2364,128 +2718,135 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2512,6 +2873,7 @@
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="23" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="26" builtinId="33" customBuiltin="1"/>
@@ -2538,19 +2900,36 @@
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2559,7 +2938,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -2579,10 +2958,11 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30687900123595696"/>
-          <c:y val="4.4982698961937746E-2"/>
+          <c:x val="0.30687900123595779"/>
+          <c:y val="4.4982698961937871E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2590,19 +2970,32 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29638041791176706"/>
-          <c:y val="0.35682819383259939"/>
+          <c:x val="0.29638041791176784"/>
+          <c:y val="0.35682819383260034"/>
           <c:w val="0.40724026888639714"/>
-          <c:h val="0.31718061674008835"/>
+          <c:h val="0.31718061674008885"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -2623,6 +3016,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="993366"/>
@@ -2648,7 +3042,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2657,11 +3051,19 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2684,17 +3086,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -2710,12 +3118,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11538474285114589"/>
-          <c:y val="0.79295154185021999"/>
-          <c:w val="0.79864341620499046"/>
+          <c:x val="0.11538474285114599"/>
+          <c:y val="0.7929515418502191"/>
+          <c:w val="0.79864341620499224"/>
           <c:h val="9.6916299559471397E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -2732,7 +3141,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="es-PE" sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2741,12 +3150,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2773,12 +3183,12 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0" footer="0"/>
+    <c:pageMargins b="1" l="0.75000000000000111" r="0.75000000000000111" t="1" header="0" footer="0"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2786,7 +3196,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2795,7 +3215,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -2815,10 +3235,11 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28496549382376174"/>
-          <c:y val="5.4727021062665707E-2"/>
+          <c:x val="0.28496549382376224"/>
+          <c:y val="5.4727021062665804E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2826,19 +3247,32 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39860190899433151"/>
-          <c:y val="0.39303816764222543"/>
-          <c:w val="0.20279746247080027"/>
-          <c:h val="0.22885766723471335"/>
+          <c:x val="0.39860190899433195"/>
+          <c:y val="0.39303816764222615"/>
+          <c:w val="0.20279746247080063"/>
+          <c:h val="0.2288576672347131"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -2870,6 +3304,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="808000"/>
@@ -2884,6 +3319,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFCC"/>
@@ -2898,6 +3334,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CCFFFF"/>
@@ -2912,6 +3349,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="660066"/>
@@ -2935,31 +3373,52 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.0718556028495433E-2"/>
-                  <c:y val="1.9369539879113828E-2"/>
+                  <c:y val="1.9369539879113856E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.5132877704156789E-2"/>
-                  <c:y val="-9.9676402646107318E-2"/>
+                  <c:x val="7.5132877704156803E-2"/>
+                  <c:y val="-9.9676402646107484E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
@@ -2973,7 +3432,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2982,11 +3441,19 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3018,19 +3485,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,7 +3505,12 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -3055,11 +3527,12 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.4663677130044841E-2"/>
-          <c:y val="0.8397488465848274"/>
-          <c:w val="0.9484304932735429"/>
-          <c:h val="0.12820593077630951"/>
+          <c:y val="0.8397488465848294"/>
+          <c:w val="0.94843049327354378"/>
+          <c:h val="0.12820593077630979"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -3076,7 +3549,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="es-PE" sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3085,12 +3558,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3117,12 +3591,12 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0" footer="0"/>
+    <c:pageMargins b="1" l="0.75000000000000111" r="0.75000000000000111" t="1" header="0" footer="0"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3130,7 +3604,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3139,7 +3623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3163,6 +3647,7 @@
           <c:y val="4.0498851195002496E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3170,27 +3655,29 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5664445354045049E-2"/>
-          <c:y val="0.21183913404912813"/>
+          <c:x val="8.5664445354045368E-2"/>
+          <c:y val="0.21183913404912846"/>
           <c:w val="0.88112000935589063"/>
-          <c:h val="0.58878818140125244"/>
+          <c:h val="0.58878818140125089"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Informe de Revisión'!$C$42</c:f>
+              <c:f>'Informe de Revisión'!$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3229,8 +3716,11 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="0">
                 <a:gsLst>
@@ -3274,7 +3764,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3283,15 +3773,26 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Informe de Revisión'!$C$40:$C$41</c:f>
+              <c:f>'Informe de Revisión'!$C$41:$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3305,33 +3806,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Informe de Revisión'!$D$40:$D$41</c:f>
+              <c:f>'Informe de Revisión'!$D$41:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>41.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60097664"/>
-        <c:axId val="60099200"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="790444960"/>
+        <c:axId val="790436256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60097664"/>
+        <c:axId val="790444960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3346,7 +3856,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3355,22 +3865,24 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60099200"/>
+        <c:crossAx val="790436256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60099200"/>
+        <c:axId val="790436256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3383,6 +3895,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3397,7 +3911,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="525" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3406,10 +3920,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60097664"/>
+        <c:crossAx val="790444960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,11 +3946,12 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.2017937219730942"/>
-          <c:y val="0.8280016171906589"/>
-          <c:w val="0.63004484304932773"/>
+          <c:y val="0.82800161719065979"/>
+          <c:w val="0.63004484304932884"/>
           <c:h val="6.4000125000244143E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -3453,7 +3968,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="460" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="es-PE" sz="460" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3462,12 +3977,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3494,12 +4010,12 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000111" r="0.75000000000000111" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3507,7 +4023,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3516,7 +4042,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3537,9 +4063,10 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.34622144112478037"/>
-          <c:y val="4.4776609080581377E-2"/>
+          <c:y val="4.4776609080581488E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3547,12 +4074,16 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
       <c:hPercent val="48"/>
+      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3566,6 +4097,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3579,6 +4111,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3598,20 +4131,21 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12829525483304044"/>
-          <c:y val="0.18656826890973718"/>
+          <c:y val="0.18656826890973721"/>
           <c:w val="0.63796133567662561"/>
-          <c:h val="0.61194392202393799"/>
+          <c:h val="0.61194392202393877"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Informe de Revisión'!$C$58</c:f>
+              <c:f>'Informe de Revisión'!$C$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3631,6 +4165,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3643,7 +4178,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3652,19 +4187,30 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Informe de Revisión'!$D$58</c:f>
+              <c:f>'Informe de Revisión'!$D$59</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +4221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Informe de Revisión'!$C$59</c:f>
+              <c:f>'Informe de Revisión'!$C$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3695,6 +4241,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3707,7 +4254,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3716,14 +4263,25 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Informe de Revisión'!$D$59</c:f>
+              <c:f>'Informe de Revisión'!$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3739,7 +4297,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Informe de Revisión'!$C$60</c:f>
+              <c:f>'Informe de Revisión'!$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3759,6 +4317,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3771,7 +4330,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3780,14 +4339,25 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Informe de Revisión'!$D$60</c:f>
+              <c:f>'Informe de Revisión'!$D$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3798,16 +4368,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="60257792"/>
-        <c:axId val="60259712"/>
+        <c:axId val="790437888"/>
+        <c:axId val="790444416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60257792"/>
+        <c:axId val="790437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3816,7 +4396,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="500" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="500" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3836,10 +4416,11 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37434094903339205"/>
-              <c:y val="0.86194519528342572"/>
+              <c:x val="0.37434094903339232"/>
+              <c:y val="0.86194519528342683"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3848,6 +4429,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3862,7 +4445,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3871,22 +4454,24 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60259712"/>
+        <c:crossAx val="790444416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60259712"/>
+        <c:axId val="790444416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3905,7 +4490,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr sz="500" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="es-PE" sz="500" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3929,6 +4514,7 @@
               <c:y val="0.53358502761781645"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3937,6 +4523,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3951,7 +4539,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="es-PE" sz="500" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3960,10 +4548,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60257792"/>
+        <c:crossAx val="790437888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3980,12 +4568,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78603776489865917"/>
-          <c:y val="0.48803827751196183"/>
+          <c:x val="0.78603776489865818"/>
+          <c:y val="0.48803827751196188"/>
           <c:w val="0.19819863412917491"/>
-          <c:h val="0.15311004784689"/>
+          <c:h val="0.15311004784689042"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -4002,7 +4591,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="460" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="es-PE" sz="460" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4011,12 +4600,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4043,18 +4633,70 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0" footer="0"/>
+    <c:pageMargins b="1" l="0.75000000000000111" r="0.75000000000000111" t="1" header="0" footer="0"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="314325" y="0"/>
+          <a:ext cx="1171575" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4102,23 +4744,70 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="1171575" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4149,7 +4838,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4175,13 +4864,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4207,13 +4896,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4235,11 +4924,58 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1171575" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Historial"/>
@@ -4350,7 +5086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4382,9 +5118,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4416,6 +5153,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4591,12 +5329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4625,15 +5363,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="B2" s="170" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -4650,25 +5388,25 @@
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
       <c r="B4" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="D4" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="E4" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="71" t="s">
         <v>68</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>69</v>
       </c>
       <c r="I4" s="67"/>
     </row>
@@ -4681,26 +5419,26 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="74">
-        <v>40951</v>
+        <v>41832</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="67"/>
       <c r="B6" s="78"/>
-      <c r="C6" s="132"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="79"/>
       <c r="E6" s="80"/>
       <c r="F6" s="81"/>
@@ -4711,7 +5449,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="78"/>
-      <c r="C7" s="133"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="83"/>
       <c r="E7" s="80"/>
       <c r="F7" s="84"/>
@@ -4733,7 +5471,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="67"/>
       <c r="B9" s="78"/>
-      <c r="C9" s="137"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="79"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -4744,7 +5482,7 @@
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
-      <c r="D10" s="131"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
@@ -4762,71 +5500,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:E53"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3" style="39" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="3" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="62" customFormat="1" ht="12" customHeight="1"/>
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A2" s="40"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="C2" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+        <v>94</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="153" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
@@ -4834,156 +5572,156 @@
       <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="157"/>
+      <c r="E8" s="198"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="93"/>
       <c r="C9" s="66"/>
       <c r="D9" s="94"/>
       <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="97"/>
       <c r="C11" s="62"/>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="96"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" s="53" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
-      <c r="H17" s="45"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
+      <c r="B19" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="203" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="204" t="s">
+      <c r="B20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="190"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="163"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="178"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="163"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="163"/>
+      <c r="C23" s="176" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="163"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="178"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -4992,263 +5730,263 @@
       <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="164" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166"/>
+      <c r="B27" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="203" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="204" t="s">
+      <c r="B28" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="190"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="168" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="170"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="182" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="144" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+        <v>113</v>
+      </c>
+      <c r="C30" s="172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="173"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
+        <v>115</v>
+      </c>
+      <c r="C31" s="172" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="173"/>
+      <c r="E31" s="174"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="38"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
+      <c r="C32" s="172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="173"/>
+      <c r="E32" s="174"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="144" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
+      <c r="C33" s="172" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="173"/>
+      <c r="E33" s="174"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="146"/>
+      <c r="C34" s="172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="146"/>
+      <c r="C35" s="172" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="173"/>
+      <c r="E35" s="174"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="168" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="184"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
+      <c r="C37" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="173"/>
+      <c r="E37" s="174"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A38" s="38"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="144" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="146"/>
+      <c r="C38" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="144" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="174"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="38"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
+        <v>148</v>
+      </c>
+      <c r="C40" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="173"/>
+      <c r="E40" s="174"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A41" s="38"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
+      <c r="C41" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="173"/>
+      <c r="E41" s="174"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
+      <c r="C42" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="173"/>
+      <c r="E42" s="174"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A43" s="38"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="172" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="173"/>
+      <c r="E43" s="174"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C44" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="145"/>
-      <c r="E43" s="146"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="146"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="174"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="144" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="146"/>
+      <c r="C45" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="173"/>
+      <c r="E45" s="174"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="173"/>
+      <c r="E46" s="174"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C47" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="174"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
+      <c r="C48" s="172" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="173"/>
+      <c r="E48" s="174"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A49" s="38"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="146"/>
+        <v>150</v>
+      </c>
+      <c r="C49" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="173"/>
+      <c r="E49" s="174"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5266,38 +6004,38 @@
       <c r="M50" s="58"/>
     </row>
     <row r="51" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A51" s="38"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="51"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="164" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="166"/>
+      <c r="B52" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="187"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="204" t="s">
+      <c r="B53" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="206"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="190"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5308,352 +6046,405 @@
       <c r="M53" s="58"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="146"/>
+        <v>151</v>
+      </c>
+      <c r="C54" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="173"/>
+      <c r="E54" s="174"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A55" s="38"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="173"/>
+      <c r="E55" s="174"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A56" s="37"/>
+      <c r="B56" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="145"/>
-      <c r="E55" s="146"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A56" s="38"/>
-      <c r="B56" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="174"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A57" s="38"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
+        <v>112</v>
+      </c>
+      <c r="C57" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="179"/>
+      <c r="E57" s="180"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
+      <c r="C58" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="179"/>
+      <c r="E58" s="180"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A59" s="38"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="148"/>
-      <c r="E59" s="149"/>
+        <v>89</v>
+      </c>
+      <c r="C59" s="172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="179"/>
+      <c r="E59" s="180"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
-      <c r="A60" s="38"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="148"/>
-      <c r="E60" s="149"/>
+      <c r="C60" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="179"/>
+      <c r="E60" s="180"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A61" s="38"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="148"/>
-      <c r="E61" s="149"/>
+        <v>55</v>
+      </c>
+      <c r="C61" s="181" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="38"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="148"/>
-      <c r="E62" s="149"/>
+      <c r="C62" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="179"/>
+      <c r="E62" s="180"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A63" s="38"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="147" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="149"/>
+      <c r="C63" s="181" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="179"/>
+      <c r="E63" s="180"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A64" s="38"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="148"/>
-      <c r="E64" s="149"/>
+      <c r="C64" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="179"/>
+      <c r="E64" s="180"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A65" s="38"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
+        <v>99</v>
+      </c>
+      <c r="C65" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="173"/>
+      <c r="E65" s="174"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A66" s="38"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="47"/>
       <c r="C66" s="55"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="175"/>
+      <c r="E67" s="175"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A68" s="38"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="171"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="171"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A70" s="38"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="167"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="171"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A71" s="38"/>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="171"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="171"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A72" s="38"/>
-      <c r="B72" s="167"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="167"/>
-      <c r="E72" s="167"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="171"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="171"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="167"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
-      <c r="E73" s="167"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="171"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="171"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="171"/>
+      <c r="C74" s="171"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="171"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A75" s="38"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="167"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="38"/>
-      <c r="B76" s="167"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="38"/>
-      <c r="B77" s="167"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="38"/>
-      <c r="B78" s="167"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="171"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="167"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="171"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="167"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="171"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="167"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="171"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="167"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A85" s="43"/>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="43"/>
+      <c r="A87" s="42"/>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B73:E73"/>
@@ -5665,62 +6456,9 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
     <mergeCell ref="B85:E85"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C31:E31"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B84:E84"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5730,25 +6468,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y48"/>
+  <dimension ref="A3:Y45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11.42578125" style="3"/>
     <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
@@ -5758,78 +6496,91 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
+      <c r="B3" s="205" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="207" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="208"/>
+      <c r="D6" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="176"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="172" t="s">
+    <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B9" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109" t="s">
+      <c r="C9" s="208"/>
+      <c r="D9" s="158">
+        <v>41832</v>
+      </c>
+      <c r="E9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="128"/>
+      <c r="F9" s="145">
+        <v>41844</v>
+      </c>
+      <c r="H9" s="159"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -5843,17 +6594,17 @@
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>126</v>
+      <c r="C12" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -5877,531 +6628,954 @@
         <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="24">
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I13" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J13" s="147">
+        <v>2</v>
+      </c>
+      <c r="K13" s="146">
+        <v>41979</v>
+      </c>
+      <c r="L13" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M13" s="105">
+        <v>2</v>
+      </c>
+      <c r="N13" s="105"/>
+    </row>
+    <row r="14" spans="2:25" ht="24">
+      <c r="B14" s="36">
+        <v>2</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I14" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J14" s="147">
+        <v>2</v>
+      </c>
+      <c r="K14" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L14" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M14" s="105">
+        <v>2</v>
+      </c>
+      <c r="N14" s="105"/>
+    </row>
+    <row r="15" spans="2:25" ht="24">
+      <c r="B15" s="36">
+        <v>3</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I15" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J15" s="147">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L15" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M15" s="105">
+        <v>1.8</v>
+      </c>
+      <c r="N15" s="105"/>
+    </row>
+    <row r="16" spans="2:25" ht="24">
+      <c r="B16" s="36">
+        <v>4</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I16" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J16" s="147">
+        <v>2</v>
+      </c>
+      <c r="K16" s="148">
+        <v>41980</v>
+      </c>
+      <c r="L16" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M16" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="N16" s="105"/>
+    </row>
+    <row r="17" spans="1:14" ht="24">
+      <c r="B17" s="36">
+        <v>5</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I17" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J17" s="147">
+        <v>2</v>
+      </c>
+      <c r="K17" s="148">
+        <v>41981</v>
+      </c>
+      <c r="L17" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M17" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="105"/>
+    </row>
+    <row r="18" spans="1:14" ht="24">
+      <c r="B18" s="36">
+        <v>6</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I18" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J18" s="147">
+        <v>3</v>
+      </c>
+      <c r="K18" s="148">
+        <v>41981</v>
+      </c>
+      <c r="L18" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M18" s="105">
+        <v>2.5</v>
+      </c>
+      <c r="N18" s="105"/>
+    </row>
+    <row r="19" spans="1:14" ht="24">
+      <c r="B19" s="36">
+        <v>7</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I19" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J19" s="147">
+        <v>3</v>
+      </c>
+      <c r="K19" s="148">
+        <v>41982</v>
+      </c>
+      <c r="L19" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M19" s="105">
+        <v>2.5</v>
+      </c>
+      <c r="N19" s="105"/>
+    </row>
+    <row r="20" spans="1:14" ht="24">
+      <c r="B20" s="36">
+        <v>8</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I20" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J20" s="147">
+        <v>1</v>
+      </c>
+      <c r="K20" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L20" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M20" s="105">
+        <v>1</v>
+      </c>
+      <c r="N20" s="105"/>
+    </row>
+    <row r="21" spans="1:14" ht="24">
+      <c r="B21" s="36">
+        <v>9</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I21" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J21" s="147">
+        <v>1</v>
+      </c>
+      <c r="K21" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L21" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M21" s="105">
+        <v>1</v>
+      </c>
+      <c r="N21" s="105"/>
+    </row>
+    <row r="22" spans="1:14" ht="24">
+      <c r="B22" s="36">
+        <v>10</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I22" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J22" s="147">
+        <v>1</v>
+      </c>
+      <c r="K22" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L22" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M22" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="N22" s="105"/>
+    </row>
+    <row r="23" spans="1:14" ht="24">
+      <c r="B23" s="36">
+        <v>11</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I23" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J23" s="147">
+        <v>1.5</v>
+      </c>
+      <c r="K23" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L23" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M23" s="105">
+        <v>1.6</v>
+      </c>
+      <c r="N23" s="105"/>
+    </row>
+    <row r="24" spans="1:14" ht="24">
+      <c r="B24" s="36">
+        <v>12</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I24" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J24" s="147">
+        <v>1</v>
+      </c>
+      <c r="K24" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L24" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M24" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="105"/>
+    </row>
+    <row r="25" spans="1:14" ht="24">
+      <c r="B25" s="36">
+        <v>13</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="154" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I25" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J25" s="147">
+        <v>2</v>
+      </c>
+      <c r="K25" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L25" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M25" s="105">
+        <v>3</v>
+      </c>
+      <c r="N25" s="105"/>
+    </row>
+    <row r="26" spans="1:14" ht="24">
+      <c r="B26" s="36">
+        <v>14</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="156" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I26" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J26" s="147">
+        <v>1</v>
+      </c>
+      <c r="K26" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L26" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M26" s="105">
+        <v>2</v>
+      </c>
+      <c r="N26" s="105"/>
+    </row>
+    <row r="27" spans="1:14" ht="24">
+      <c r="B27" s="36">
+        <v>15</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I27" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J27" s="147">
+        <v>2</v>
+      </c>
+      <c r="K27" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L27" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M27" s="105">
+        <v>3</v>
+      </c>
+      <c r="N27" s="105"/>
+    </row>
+    <row r="28" spans="1:14" ht="24">
+      <c r="B28" s="36">
+        <v>16</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="156" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I28" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J28" s="147">
+        <v>2.5</v>
+      </c>
+      <c r="K28" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L28" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M28" s="105">
+        <v>2</v>
+      </c>
+      <c r="N28" s="105"/>
+    </row>
+    <row r="29" spans="1:14" ht="24">
+      <c r="A29" s="10"/>
+      <c r="B29" s="36">
+        <v>17</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I29" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J29" s="147">
+        <v>2</v>
+      </c>
+      <c r="K29" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L29" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M29" s="105">
+        <v>2</v>
+      </c>
+      <c r="N29" s="105"/>
+    </row>
+    <row r="30" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="36">
+        <v>18</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="151" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I30" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J30" s="147">
+        <v>1.5</v>
+      </c>
+      <c r="K30" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L30" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M30" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="105"/>
+    </row>
+    <row r="31" spans="1:14" ht="24">
+      <c r="A31" s="10"/>
+      <c r="B31" s="36">
+        <v>19</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I31" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J31" s="147">
+        <v>1.5</v>
+      </c>
+      <c r="K31" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L31" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M31" s="105">
+        <v>2</v>
+      </c>
+      <c r="N31" s="105"/>
+    </row>
+    <row r="32" spans="1:14" ht="24">
+      <c r="A32" s="10"/>
+      <c r="B32" s="36">
+        <v>20</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I32" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J32" s="147">
+        <v>1</v>
+      </c>
+      <c r="K32" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L32" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M32" s="105">
+        <v>1</v>
+      </c>
+      <c r="N32" s="105"/>
+    </row>
+    <row r="33" spans="1:14" ht="24">
+      <c r="A33" s="10"/>
+      <c r="B33" s="36">
+        <v>21</v>
+      </c>
+      <c r="C33" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I33" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J33" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L33" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M33" s="105">
+        <v>1</v>
+      </c>
+      <c r="N33" s="105"/>
+    </row>
+    <row r="34" spans="1:14" ht="24">
+      <c r="A34" s="10"/>
+      <c r="B34" s="36">
+        <v>22</v>
+      </c>
+      <c r="C34" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="104">
-        <v>40787</v>
-      </c>
-      <c r="I13" s="104">
-        <v>40787</v>
-      </c>
-      <c r="J13" s="130">
-        <v>1</v>
-      </c>
-      <c r="K13" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L13" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M13" s="105">
-        <v>3</v>
-      </c>
-      <c r="N13" s="105" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="24">
-      <c r="B14" s="37">
+      <c r="E34" s="164" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="166">
+        <v>41832</v>
+      </c>
+      <c r="I34" s="166">
+        <v>41832</v>
+      </c>
+      <c r="J34" s="167">
+        <v>1.5</v>
+      </c>
+      <c r="K34" s="168">
+        <v>41979</v>
+      </c>
+      <c r="L34" s="169">
+        <v>41840</v>
+      </c>
+      <c r="M34" s="105">
         <v>2</v>
       </c>
-      <c r="C14" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="103" t="s">
+      <c r="N34" s="105"/>
+    </row>
+    <row r="35" spans="1:14" ht="24">
+      <c r="A35" s="10"/>
+      <c r="B35" s="36">
+        <v>23</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="104">
-        <v>40789</v>
-      </c>
-      <c r="I14" s="104">
-        <v>40790</v>
-      </c>
-      <c r="J14" s="130">
-        <v>2</v>
-      </c>
-      <c r="K14" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L14" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M14" s="105">
-        <v>4</v>
-      </c>
-      <c r="N14" s="105"/>
-    </row>
-    <row r="15" spans="2:25" ht="24">
-      <c r="B15" s="37">
-        <v>3</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-    </row>
-    <row r="16" spans="2:25" ht="24">
-      <c r="B16" s="37">
-        <v>4</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-    </row>
-    <row r="17" spans="2:14" ht="24">
-      <c r="B17" s="37">
-        <v>5</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-    </row>
-    <row r="18" spans="2:14" ht="24">
-      <c r="B18" s="37">
-        <v>6</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-    </row>
-    <row r="19" spans="2:14" ht="24">
-      <c r="B19" s="37">
-        <v>7</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="104">
-        <v>40796</v>
-      </c>
-      <c r="I19" s="104">
-        <v>40796</v>
-      </c>
-      <c r="J19" s="130">
-        <v>2</v>
-      </c>
-      <c r="K19" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L19" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M19" s="105">
-        <v>4</v>
-      </c>
-      <c r="N19" s="105"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="37">
-        <v>8</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="37">
-        <v>9</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="37">
-        <v>10</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="37">
-        <v>11</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="37">
-        <v>12</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="37">
-        <v>13</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="37">
-        <v>14</v>
-      </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="37">
-        <v>15</v>
-      </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="37">
-        <v>16</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="37">
-        <v>17</v>
-      </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="37">
-        <v>18</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="37">
-        <v>19</v>
-      </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="37">
-        <v>20</v>
-      </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="B33" s="37">
-        <v>21</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="10"/>
-      <c r="B34" s="37">
-        <v>33</v>
-      </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="10"/>
-      <c r="B35" s="37">
-        <v>34</v>
-      </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
+      <c r="G35" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I35" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J35" s="147">
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L35" s="146">
+        <v>41840</v>
+      </c>
       <c r="M35" s="105"/>
       <c r="N35" s="105"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="37">
-        <v>22</v>
-      </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
+    <row r="36" spans="1:14" ht="24">
+      <c r="A36" s="10"/>
+      <c r="B36" s="36">
+        <v>24</v>
+      </c>
+      <c r="C36" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="145">
+        <v>41832</v>
+      </c>
+      <c r="I36" s="145">
+        <v>41832</v>
+      </c>
+      <c r="J36" s="147">
+        <v>2</v>
+      </c>
+      <c r="K36" s="148">
+        <v>41979</v>
+      </c>
+      <c r="L36" s="146">
+        <v>41840</v>
+      </c>
+      <c r="M36" s="105">
+        <v>2</v>
+      </c>
       <c r="N36" s="105"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="B37" s="37">
-        <v>23</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="102"/>
       <c r="D37" s="102"/>
       <c r="E37" s="103"/>
@@ -6409,16 +7583,15 @@
       <c r="G37" s="103"/>
       <c r="H37" s="104"/>
       <c r="I37" s="104"/>
-      <c r="J37" s="130"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="104"/>
       <c r="L37" s="104"/>
       <c r="M37" s="105"/>
       <c r="N37" s="105"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="B38" s="37">
-        <v>24</v>
-      </c>
+      <c r="A38" s="10"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
       <c r="E38" s="103"/>
@@ -6426,16 +7599,15 @@
       <c r="G38" s="103"/>
       <c r="H38" s="104"/>
       <c r="I38" s="104"/>
-      <c r="J38" s="130"/>
+      <c r="J38" s="126"/>
       <c r="K38" s="104"/>
       <c r="L38" s="104"/>
       <c r="M38" s="105"/>
       <c r="N38" s="105"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="B39" s="37">
-        <v>25</v>
-      </c>
+      <c r="A39" s="10"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
       <c r="E39" s="103"/>
@@ -6443,16 +7615,14 @@
       <c r="G39" s="103"/>
       <c r="H39" s="104"/>
       <c r="I39" s="104"/>
-      <c r="J39" s="130"/>
+      <c r="J39" s="126"/>
       <c r="K39" s="104"/>
       <c r="L39" s="104"/>
       <c r="M39" s="105"/>
       <c r="N39" s="105"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="B40" s="37">
-        <v>26</v>
-      </c>
+    <row r="40" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B40" s="36"/>
       <c r="C40" s="102"/>
       <c r="D40" s="102"/>
       <c r="E40" s="103"/>
@@ -6460,163 +7630,66 @@
       <c r="G40" s="103"/>
       <c r="H40" s="104"/>
       <c r="I40" s="104"/>
-      <c r="J40" s="130"/>
+      <c r="J40" s="126"/>
       <c r="K40" s="104"/>
       <c r="L40" s="104"/>
       <c r="M40" s="105"/>
       <c r="N40" s="105"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="B41" s="37">
-        <v>27</v>
-      </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B41" s="8"/>
+      <c r="J41" s="106">
+        <f>SUM(J13:J40)</f>
+        <v>40</v>
+      </c>
+      <c r="L41" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="106">
+        <f>SUM(M13:M40)</f>
+        <v>41.900000000000006</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="B42" s="37">
-        <v>28</v>
-      </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-    </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B43" s="37">
-        <v>29</v>
-      </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="10"/>
-      <c r="B44" s="37">
-        <v>30</v>
-      </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="10"/>
-      <c r="B45" s="37">
-        <v>31</v>
-      </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="10"/>
-      <c r="B46" s="37">
-        <v>32</v>
-      </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B47" s="8"/>
-      <c r="J47" s="106">
-        <f>SUM(J13:J46)</f>
-        <v>5</v>
-      </c>
-      <c r="L47" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="106">
-        <f>SUM(M13:M46)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="B48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D46">
-      <formula1>IF(C20="Fast Track",f_fast,IF(C20="Configuraciones Tipo o Nuevas",f_tipo,IF(C20="Desarrollos Departamentales",f_depar,IF(C20="Desarrollos Adicionales ATIS",f_atis,IF(C20="Definición de Requerimientos",f_req,f_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D31:D40">
+      <formula1>IF(C24="Fast Track",f_fast,IF(C24="Configuraciones Tipo o Nuevas",f_tipo,IF(C24="Desarrollos Departamentales",f_depar,IF(C24="Desarrollos Adicionales ATIS",f_atis,IF(C24="Definición de Requerimientos",f_req,f_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:E40">
+      <formula1>IF(C37="Fast Track",e_fast,IF(C37="Configuraciones Tipo o Nuevas",e_tipo,IF(C37="Desarrollos Departamentales",e_depar,IF(C37="Desarrollos Adicionales ATIS",e_atis,IF(C37="Definición de Requerimientos",e_req,e_inci)))))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D30 D13:D23">
+      <formula1>f_depar</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C40">
       <formula1>TipoProy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E46">
-      <formula1>IF(C19="Fast Track",e_fast,IF(C19="Configuraciones Tipo o Nuevas",e_tipo,IF(C19="Desarrollos Departamentales",e_depar,IF(C19="Desarrollos Adicionales ATIS",e_atis,IF(C19="Definición de Requerimientos",e_req,e_inci)))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D19">
-      <formula1>f_depar</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6624,20 +7697,21 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -6646,9 +7720,9 @@
     <col min="2" max="2" width="8.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="18" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.5703125" style="19" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" style="19" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="19" hidden="1" customWidth="1"/>
@@ -6657,23 +7731,23 @@
     <col min="16" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A1" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -6690,7 +7764,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="10.5" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="35"/>
       <c r="C3" s="32"/>
@@ -6701,16 +7775,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>23</v>
@@ -6725,7 +7799,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -6740,464 +7814,1304 @@
         <v>29</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
+        <v>2</v>
+      </c>
+      <c r="C5" s="111" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="111" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F5" s="111" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116">
+        <v>41835</v>
+      </c>
+      <c r="M5" s="116">
+        <v>41841</v>
+      </c>
+      <c r="N5" s="117">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O5" s="130"/>
+    </row>
+    <row r="6" spans="1:15" ht="24">
+      <c r="A6" s="109">
+        <v>2</v>
+      </c>
+      <c r="B6" s="110">
+        <v>1</v>
+      </c>
+      <c r="C6" s="111" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="113" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E5" s="112" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F5" s="112" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M5" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N5" s="118">
-        <f>IF(M5&gt;0,1,0)</f>
+      <c r="D6" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="111" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F6" s="111" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M6" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N6" s="117">
         <v>1</v>
       </c>
-      <c r="O5" s="134"/>
-    </row>
-    <row r="6" spans="1:15" ht="12">
-      <c r="A6" s="110">
+      <c r="O6" s="130"/>
+    </row>
+    <row r="7" spans="1:15" ht="24">
+      <c r="A7" s="109">
+        <v>3</v>
+      </c>
+      <c r="B7" s="110">
+        <v>1</v>
+      </c>
+      <c r="C7" s="111" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="111" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F7" s="111" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="115"/>
+      <c r="L7" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M7" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N7" s="117">
+        <v>1</v>
+      </c>
+      <c r="O7" s="130"/>
+    </row>
+    <row r="8" spans="1:15" ht="24">
+      <c r="A8" s="109">
+        <v>4</v>
+      </c>
+      <c r="B8" s="233">
+        <v>3</v>
+      </c>
+      <c r="C8" s="234" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D8" s="235" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="234" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F8" s="234" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G8" s="236" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="237" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="237" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="238"/>
+      <c r="L8" s="239">
+        <v>41835</v>
+      </c>
+      <c r="M8" s="239">
+        <v>41841</v>
+      </c>
+      <c r="N8" s="240">
+        <v>1</v>
+      </c>
+      <c r="O8" s="241"/>
+    </row>
+    <row r="9" spans="1:15" ht="24">
+      <c r="A9" s="109">
+        <v>5</v>
+      </c>
+      <c r="B9" s="233">
+        <v>3</v>
+      </c>
+      <c r="C9" s="234" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D9" s="235" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="234" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F9" s="234" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G9" s="236" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="237" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="237" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="237" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="238"/>
+      <c r="L9" s="239">
+        <v>41835</v>
+      </c>
+      <c r="M9" s="239">
+        <v>41841</v>
+      </c>
+      <c r="N9" s="240">
+        <v>1</v>
+      </c>
+      <c r="O9" s="241"/>
+    </row>
+    <row r="10" spans="1:15" ht="24">
+      <c r="A10" s="109">
+        <v>6</v>
+      </c>
+      <c r="B10" s="110">
         <v>2</v>
       </c>
-      <c r="B6" s="111">
+      <c r="C10" s="111" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="111" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F10" s="111" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="115"/>
+      <c r="L10" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M10" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N10" s="117">
+        <v>1</v>
+      </c>
+      <c r="O10" s="130"/>
+    </row>
+    <row r="11" spans="1:15" ht="24">
+      <c r="A11" s="109">
+        <v>7</v>
+      </c>
+      <c r="B11" s="110">
         <v>2</v>
       </c>
-      <c r="C6" s="112" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="C11" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M11" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N11" s="117">
+        <v>1</v>
+      </c>
+      <c r="O11" s="130"/>
+    </row>
+    <row r="12" spans="1:15" ht="24">
+      <c r="A12" s="109">
+        <v>8</v>
+      </c>
+      <c r="B12" s="110">
+        <v>2</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M12" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N12" s="117">
+        <v>1</v>
+      </c>
+      <c r="O12" s="130"/>
+    </row>
+    <row r="13" spans="1:15" ht="24">
+      <c r="A13" s="109">
+        <v>9</v>
+      </c>
+      <c r="B13" s="110">
+        <v>2</v>
+      </c>
+      <c r="C13" s="111" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="113" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de Clases</v>
-      </c>
-      <c r="E6" s="112" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
-      </c>
-      <c r="F6" s="112" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G6" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M6" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N6" s="118">
-        <f>IF(M6&gt;0,1,0)</f>
+      <c r="D13" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="111" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F13" s="111" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="115"/>
+      <c r="L13" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M13" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N13" s="117">
         <v>1</v>
       </c>
-      <c r="O6" s="134"/>
-    </row>
-    <row r="7" spans="1:15" ht="24">
-      <c r="A7" s="110">
+      <c r="O13" s="130"/>
+    </row>
+    <row r="14" spans="1:15" s="242" customFormat="1" ht="24">
+      <c r="A14" s="109">
+        <v>10</v>
+      </c>
+      <c r="B14" s="233">
         <v>3</v>
       </c>
-      <c r="B7" s="111">
+      <c r="C14" s="234" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D14" s="235" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="234" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F14" s="234" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G14" s="243" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="237" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="237" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="238"/>
+      <c r="L14" s="239">
+        <v>41835</v>
+      </c>
+      <c r="M14" s="239">
+        <v>41841</v>
+      </c>
+      <c r="N14" s="240">
+        <v>1</v>
+      </c>
+      <c r="O14" s="241"/>
+    </row>
+    <row r="15" spans="1:15" ht="24">
+      <c r="A15" s="109">
+        <v>11</v>
+      </c>
+      <c r="B15" s="110">
+        <v>2</v>
+      </c>
+      <c r="C15" s="111" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="111" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F15" s="111" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G15" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M15" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N15" s="117">
+        <v>1</v>
+      </c>
+      <c r="O15" s="130"/>
+    </row>
+    <row r="16" spans="1:15" ht="24">
+      <c r="A16" s="109">
+        <v>12</v>
+      </c>
+      <c r="B16" s="110">
+        <v>2</v>
+      </c>
+      <c r="C16" s="111" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="111" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F16" s="111" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G16" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M16" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N16" s="117">
+        <v>1</v>
+      </c>
+      <c r="O16" s="130"/>
+    </row>
+    <row r="17" spans="1:15" ht="24">
+      <c r="A17" s="109">
+        <v>13</v>
+      </c>
+      <c r="B17" s="110">
+        <v>2</v>
+      </c>
+      <c r="C17" s="111" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="111" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F17" s="111" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G17" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="115"/>
+      <c r="L17" s="116">
+        <v>41814</v>
+      </c>
+      <c r="M17" s="116">
+        <v>41816</v>
+      </c>
+      <c r="N17" s="117">
+        <v>1</v>
+      </c>
+      <c r="O17" s="130"/>
+    </row>
+    <row r="18" spans="1:15" ht="36" customHeight="1">
+      <c r="A18" s="109">
+        <v>14</v>
+      </c>
+      <c r="B18" s="110">
+        <v>2</v>
+      </c>
+      <c r="C18" s="111" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="111" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F18" s="111" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G18" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M18" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N18" s="117">
+        <v>1</v>
+      </c>
+      <c r="O18" s="130"/>
+    </row>
+    <row r="19" spans="1:15" ht="24">
+      <c r="A19" s="109">
+        <v>15</v>
+      </c>
+      <c r="B19" s="110">
+        <v>2</v>
+      </c>
+      <c r="C19" s="111" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="111" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F19" s="111" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G19" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M19" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N19" s="117">
+        <v>2</v>
+      </c>
+      <c r="O19" s="130"/>
+    </row>
+    <row r="20" spans="1:15" ht="24">
+      <c r="A20" s="109">
+        <v>16</v>
+      </c>
+      <c r="B20" s="110">
+        <v>2</v>
+      </c>
+      <c r="C20" s="111" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="111" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F20" s="111" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G20" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M20" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N20" s="117">
         <v>3</v>
       </c>
-      <c r="C7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O20" s="130"/>
+    </row>
+    <row r="21" spans="1:15" ht="24">
+      <c r="A21" s="109">
+        <v>17</v>
+      </c>
+      <c r="B21" s="110">
+        <v>2</v>
+      </c>
+      <c r="C21" s="111" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="113" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M7" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N7" s="118">
-        <f>IF(M7&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="134"/>
-    </row>
-    <row r="8" spans="1:15" ht="24">
-      <c r="A8" s="110">
+      <c r="D21" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="111" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F21" s="111" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G21" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="115"/>
+      <c r="L21" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M21" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N21" s="117">
         <v>4</v>
       </c>
-      <c r="B8" s="111">
-        <v>4</v>
-      </c>
-      <c r="C8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O21" s="130"/>
+    </row>
+    <row r="22" spans="1:15" ht="24">
+      <c r="A22" s="109">
+        <v>18</v>
+      </c>
+      <c r="B22" s="110">
+        <v>2</v>
+      </c>
+      <c r="C22" s="111" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="113" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
-      </c>
-      <c r="F8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G8" s="115" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M8" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N8" s="118">
-        <f>IF(M8&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="134"/>
-    </row>
-    <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="110">
+      <c r="D22" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="111" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F22" s="111" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G22" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M22" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N22" s="117">
         <v>5</v>
       </c>
-      <c r="B9" s="111">
-        <v>5</v>
-      </c>
-      <c r="C9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O22" s="130"/>
+    </row>
+    <row r="23" spans="1:15" ht="36">
+      <c r="A23" s="109">
+        <v>19</v>
+      </c>
+      <c r="B23" s="110">
+        <v>2</v>
+      </c>
+      <c r="C23" s="111" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="113" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G9" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M9" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N9" s="118">
-        <f>IF(M9&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="134"/>
-    </row>
-    <row r="10" spans="1:15" ht="36">
-      <c r="A10" s="110">
+      <c r="D23" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="111" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F23" s="111" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G23" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M23" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N23" s="117">
         <v>6</v>
       </c>
-      <c r="B10" s="111">
-        <v>6</v>
-      </c>
-      <c r="C10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O23" s="130"/>
+    </row>
+    <row r="24" spans="1:15" ht="36">
+      <c r="A24" s="109">
+        <v>20</v>
+      </c>
+      <c r="B24" s="110">
+        <v>2</v>
+      </c>
+      <c r="C24" s="111" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="113" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
-      </c>
-      <c r="F10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G10" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M10" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N10" s="118">
-        <f t="shared" ref="N10:N15" si="0">IF(M10&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="134"/>
-    </row>
-    <row r="11" spans="1:15" ht="24">
-      <c r="A11" s="110">
+      <c r="D24" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="111" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F24" s="111" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G24" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="115"/>
+      <c r="L24" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M24" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N24" s="117">
         <v>7</v>
       </c>
-      <c r="B11" s="111">
-        <v>7</v>
-      </c>
-      <c r="C11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O24" s="130"/>
+    </row>
+    <row r="25" spans="1:15" ht="36">
+      <c r="A25" s="109">
+        <v>21</v>
+      </c>
+      <c r="B25" s="110">
+        <v>2</v>
+      </c>
+      <c r="C25" s="111" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="113" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Proceso de gestion de proyecto</v>
-      </c>
-      <c r="E11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M11" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N11" s="118">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="134"/>
-    </row>
-    <row r="12" spans="1:15" ht="12">
-      <c r="A12" s="110">
+      <c r="D25" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="111" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F25" s="111" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M25" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N25" s="117">
         <v>8</v>
       </c>
-      <c r="B12" s="111">
-        <v>8</v>
-      </c>
-      <c r="C12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="113">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="134"/>
-    </row>
-    <row r="13" spans="1:15" ht="12">
-      <c r="A13" s="110">
+      <c r="O25" s="130"/>
+    </row>
+    <row r="26" spans="1:15" ht="24">
+      <c r="A26" s="109">
+        <v>22</v>
+      </c>
+      <c r="B26" s="110">
+        <v>2</v>
+      </c>
+      <c r="C26" s="111" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="111" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F26" s="111" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="115"/>
+      <c r="L26" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M26" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N26" s="117">
         <v>9</v>
       </c>
-      <c r="B13" s="111">
-        <v>9</v>
-      </c>
-      <c r="C13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="113">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="134"/>
-    </row>
-    <row r="14" spans="1:15" ht="12">
-      <c r="A14" s="110">
+      <c r="O26" s="130"/>
+    </row>
+    <row r="27" spans="1:15" ht="36">
+      <c r="A27" s="109">
+        <v>23</v>
+      </c>
+      <c r="B27" s="110">
+        <v>2</v>
+      </c>
+      <c r="C27" s="111" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="111" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F27" s="111" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M27" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N27" s="117">
         <v>10</v>
       </c>
-      <c r="B14" s="111">
-        <v>10</v>
-      </c>
-      <c r="C14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="113">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="134"/>
-    </row>
-    <row r="15" spans="1:15" ht="12">
-      <c r="A15" s="110">
+      <c r="O27" s="130"/>
+    </row>
+    <row r="28" spans="1:15" ht="24">
+      <c r="A28" s="109">
+        <v>24</v>
+      </c>
+      <c r="B28" s="110">
+        <v>2</v>
+      </c>
+      <c r="C28" s="111" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$87,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="111" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$F$87,5,FALSE)</f>
+        <v>YM</v>
+      </c>
+      <c r="F28" s="111" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$87,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="G28" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="115"/>
+      <c r="L28" s="116">
+        <v>41802</v>
+      </c>
+      <c r="M28" s="116">
+        <v>41807</v>
+      </c>
+      <c r="N28" s="117">
         <v>11</v>
       </c>
-      <c r="B15" s="111">
-        <v>11</v>
-      </c>
-      <c r="C15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="113">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="134"/>
+      <c r="O28" s="130"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7205,10 +9119,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H28">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -7224,12 +9138,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A2:K61"/>
+  <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7242,109 +9156,109 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="196" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="185" t="str">
+      <c r="C4" s="213" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="187"/>
+        <v>YM</v>
+      </c>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="216"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="197" t="str">
+      <c r="C5" s="217" t="str">
         <f>Planificación!B7</f>
         <v>Gestor de Calidad</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="185" t="str">
+      <c r="D5" s="218"/>
+      <c r="E5" s="214" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
+        <v>BC</v>
+      </c>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="216"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185" t="str">
+      <c r="D6" s="221"/>
+      <c r="E6" s="214" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="187"/>
+        <v>HM, JG, RR</v>
+      </c>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="216"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190" t="str">
+      <c r="D7" s="223"/>
+      <c r="E7" s="224">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="192" t="s">
+        <v>41832</v>
+      </c>
+      <c r="F7" s="225"/>
+      <c r="G7" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="119" t="str">
+      <c r="H7" s="227"/>
+      <c r="I7" s="118">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
-        <v/>
+        <v>41844</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="185" t="str">
+      <c r="D8" s="228"/>
+      <c r="E8" s="214" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="187"/>
+        <v>JULIO</v>
+      </c>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="216"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="188" t="s">
+      <c r="C13" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="188"/>
+      <c r="D13" s="222"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7353,48 +9267,48 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="120">
-        <f>COUNTA(Planificación!C13:C46)</f>
-        <v>7</v>
+      <c r="D14" s="119">
+        <f>COUNTA(Planificación!C13:C40)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="119">
         <f>D14-D16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="120">
-        <f>COUNT(Planificación!L13:L46)</f>
-        <v>3</v>
+      <c r="D16" s="141">
+        <f>COUNTA(Planificación!L13:L39)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="120">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="120">
         <f>1-D17</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7403,35 +9317,35 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="136"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="26"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="136"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="26"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="136"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="26"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="136"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="26"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="136"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="26"/>
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="182"/>
+      <c r="D26" s="219"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -7442,160 +9356,169 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C28)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
-        <v>1</v>
+      <c r="D30" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C30)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="124" t="s">
+      <c r="C31" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C31)</f>
-        <v>2</v>
+      <c r="D31" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C31)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C32)</f>
-        <v>1</v>
+      <c r="D32" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="126">
-        <f>SUM(D28:D32)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="182" t="s">
+      <c r="D34" s="143">
+        <f>SUM(D28:D33)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15">
+      <c r="C40" s="219" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="219"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="182"/>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="125" t="s">
+      <c r="D41" s="142">
+        <f>Planificación!J41</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="123">
-        <f>Planificación!J47</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="123">
-        <f>Planificación!M47</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="125" t="s">
+      <c r="D42" s="142">
+        <f>Planificación!M41</f>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="123">
-        <f>D40-D41</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="182" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="182"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="34" t="s">
+      <c r="D43" s="142">
+        <f>D41-D42</f>
+        <v>-1.9000000000000057</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" ht="15">
+      <c r="C57" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="219"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D58" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C58)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C59)</f>
-        <v>0</v>
+      <c r="C59" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C59)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C60)</f>
+      <c r="C60" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="142">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="126">
-        <f>SUM(D58:D60)</f>
-        <v>1</v>
+      <c r="D62" s="143">
+        <f>SUM(D59:D61)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7604,19 +9527,19 @@
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D40:D42 D14:D18 D31:D32" unlockedFormula="1"/>
+    <ignoredError sqref="D14:D15 D17:D18" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7635,354 +9558,352 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="D3" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="230" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="229"/>
+      <c r="K4" s="138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="231"/>
+      <c r="B5" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="229"/>
+      <c r="K5" s="138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="231"/>
+      <c r="B6" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="125"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="231"/>
+      <c r="B7" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="J7" s="229" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="127" t="s">
+      <c r="K7" s="138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="231"/>
+      <c r="B8" s="136" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="125"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="231"/>
+      <c r="B9" s="139"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="138" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="D3" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="129" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="231"/>
+      <c r="B10" s="136"/>
+      <c r="F10" s="131"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="231"/>
+      <c r="B11" s="136"/>
+      <c r="F11" s="131"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="232"/>
+      <c r="B12" s="137"/>
+      <c r="F12" s="131"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="229"/>
+      <c r="K13" s="138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="199" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="142" t="s">
+      <c r="K14" s="138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="229"/>
+      <c r="K15" s="138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="229"/>
+      <c r="K16" s="138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="229"/>
+      <c r="K17" s="138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="229"/>
+      <c r="K18" s="138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="229"/>
+      <c r="K19" s="138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="229"/>
+      <c r="K20" s="138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="229"/>
+      <c r="K21" s="138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="229"/>
+      <c r="K22" s="138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="229"/>
+      <c r="K23" s="138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="229"/>
+      <c r="K25" s="138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="229"/>
+      <c r="K26" s="138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="229"/>
+      <c r="K27" s="138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="229"/>
+      <c r="K28" s="138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="229"/>
+      <c r="K29" s="138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="229"/>
+      <c r="K30" s="138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="229" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="229"/>
+      <c r="K32" s="138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="229"/>
+      <c r="K33" s="138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="229"/>
+      <c r="K34" s="138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="229"/>
+      <c r="K35" s="138" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="229"/>
+      <c r="K37" s="138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="229"/>
+      <c r="K38" s="138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="229"/>
+      <c r="K39" s="138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="229"/>
+      <c r="K40" s="138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="229"/>
+      <c r="K41" s="138" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="200" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="199"/>
-      <c r="K4" s="142" t="s">
+    <row r="42" spans="10:11">
+      <c r="J42" s="229"/>
+      <c r="K42" s="138" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="201"/>
-      <c r="B5" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="199"/>
-      <c r="K5" s="142" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="201"/>
-      <c r="B6" s="140" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="201"/>
-      <c r="B7" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="129"/>
-      <c r="J7" s="199" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="142" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="201"/>
-      <c r="B8" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="129"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="142" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="201"/>
-      <c r="B9" s="140" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="199"/>
-      <c r="K9" s="142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="201"/>
-      <c r="B10" s="140"/>
-      <c r="F10" s="135"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="201"/>
-      <c r="B11" s="140"/>
-      <c r="F11" s="135"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="202"/>
-      <c r="B12" s="141"/>
-      <c r="F12" s="135"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="142" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="199"/>
-      <c r="K13" s="142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="199" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="J15" s="199"/>
-      <c r="K15" s="142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="199"/>
-      <c r="K16" s="142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="199"/>
-      <c r="K17" s="142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="199"/>
-      <c r="K18" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="199"/>
-      <c r="K19" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="199"/>
-      <c r="K20" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="199"/>
-      <c r="K21" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="199"/>
-      <c r="K22" s="142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="199"/>
-      <c r="K23" s="142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="199" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="199"/>
-      <c r="K25" s="142" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="199"/>
-      <c r="K26" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="199"/>
-      <c r="K27" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="199"/>
-      <c r="K28" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="199"/>
-      <c r="K29" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="199"/>
-      <c r="K30" s="142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="199" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="199"/>
-      <c r="K32" s="142" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="199"/>
-      <c r="K33" s="142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="199"/>
-      <c r="K34" s="142" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="199"/>
-      <c r="K35" s="142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="199" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="142" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="199"/>
-      <c r="K37" s="142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="199"/>
-      <c r="K38" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="199"/>
-      <c r="K39" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="199"/>
-      <c r="K40" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="199"/>
-      <c r="K41" s="142" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="199"/>
-      <c r="K42" s="142" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOSHITOMI\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Delivery Online\Entregables\Ultima Presentacion\Area PPQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="247">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -704,16 +704,6 @@
     <t>Jefe de Proyecto:</t>
   </si>
   <si>
-    <t>Yoshitomi Maehara
-(Jefe de Proyecto)</t>
-  </si>
-  <si>
-    <t>Adecuacion de Software de delivery Online</t>
-  </si>
-  <si>
-    <t>HM, JG, RR</t>
-  </si>
-  <si>
     <t>ICIC</t>
   </si>
   <si>
@@ -765,12 +755,6 @@
     <t>Documento de analisis</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 12/07/2014</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
     <t>GESTION DE LA CONFIGURACION</t>
   </si>
   <si>
@@ -916,6 +900,27 @@
   </si>
   <si>
     <t>Actualizar la tabla de base de datos y actualizar el numero de productos</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 13/10/2015</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Julio Leonardo Paredes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP-GPS-ALARM </t>
+  </si>
+  <si>
+    <t>Roger Apaestegui Ortega</t>
+  </si>
+  <si>
+    <t>Analista de Calidad</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
   </si>
 </sst>
 </file>
@@ -928,7 +933,7 @@
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1315,6 +1320,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2051,7 +2063,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2579,10 +2591,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2593,102 +2601,146 @@
     <xf numFmtId="167" fontId="62" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2710,14 +2762,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2730,6 +2774,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="56" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2738,18 +2833,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2758,45 +2841,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2809,44 +2853,8 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3051,7 +3059,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3062,7 +3070,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3150,7 +3160,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3183,7 +3193,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3379,7 +3389,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3398,7 +3410,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3417,7 +3431,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3441,7 +3457,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
@@ -3452,7 +3468,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3558,7 +3576,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3591,7 +3609,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3773,7 +3791,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3786,6 +3804,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3829,11 +3848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="790444960"/>
-        <c:axId val="790436256"/>
+        <c:axId val="175517376"/>
+        <c:axId val="175517936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="790444960"/>
+        <c:axId val="175517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3865,10 +3884,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="790436256"/>
+        <c:crossAx val="175517936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3878,7 +3897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="790436256"/>
+        <c:axId val="175517936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,10 +3939,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="790444960"/>
+        <c:crossAx val="175517376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3977,7 +3996,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4010,7 +4029,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4187,7 +4206,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4263,7 +4282,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4339,7 +4358,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4378,12 +4397,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="790437888"/>
-        <c:axId val="790444416"/>
+        <c:axId val="175521296"/>
+        <c:axId val="175821248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="790437888"/>
+        <c:axId val="175521296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4454,10 +4473,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="790444416"/>
+        <c:crossAx val="175821248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4467,7 +4486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="790444416"/>
+        <c:axId val="175821248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,10 +4567,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="790437888"/>
+        <c:crossAx val="175521296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,7 +4619,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4633,7 +4652,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4645,58 +4664,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="314325" y="0"/>
-          <a:ext cx="1171575" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4744,57 +4711,10 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>771525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="0"/>
-          <a:ext cx="1171575" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4922,53 +4842,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen" descr="C:\Users\Yoshitomi\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Servicios de Restaurantes\logo.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1171575" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5334,7 +5207,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5363,15 +5236,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5410,22 +5283,22 @@
       </c>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="24">
       <c r="A5" s="67"/>
       <c r="B5" s="72">
         <v>1</v>
       </c>
-      <c r="C5" s="73">
-        <v>0.1</v>
+      <c r="C5" s="73" t="s">
+        <v>241</v>
       </c>
       <c r="D5" s="74">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>69</v>
@@ -5504,8 +5377,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5522,22 +5395,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="39"/>
       <c r="B3" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="199" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
+      <c r="C3" s="200" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -5549,12 +5422,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="39"/>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="197"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="39"/>
@@ -5577,10 +5450,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="197" t="s">
+      <c r="D8" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="198"/>
+      <c r="E8" s="199"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39"/>
@@ -5666,62 +5539,62 @@
       <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="188" t="s">
+      <c r="C20" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="189"/>
-      <c r="E20" s="190"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="192"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="205"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="205"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="176" t="s">
+      <c r="C24" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="205"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5734,31 +5607,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="185" t="s">
+      <c r="B27" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="187"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="189"/>
-      <c r="E28" s="190"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="192"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5767,11 +5640,11 @@
       <c r="B30" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="174"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5780,11 +5653,11 @@
       <c r="B31" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="174"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5793,11 +5666,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="174"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5806,11 +5679,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5819,174 +5692,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="183"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="174"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="183"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="37"/>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="184"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="174"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="183"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="174"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="37"/>
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="172" t="s">
+      <c r="C39" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="174"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="183"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="37"/>
       <c r="B40" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="174"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="183"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="172" t="s">
+      <c r="C41" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="173"/>
-      <c r="E41" s="174"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="183"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="37"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="174"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="172" t="s">
+      <c r="C43" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="173"/>
-      <c r="E43" s="174"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="173"/>
-      <c r="E44" s="174"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="183"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="172" t="s">
+      <c r="C45" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="173"/>
-      <c r="E45" s="174"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="183"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="172" t="s">
+      <c r="C46" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="172" t="s">
+      <c r="C47" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="173"/>
-      <c r="E47" s="174"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="183"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="172" t="s">
+      <c r="C48" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="173"/>
-      <c r="E48" s="174"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="183"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="173"/>
-      <c r="E49" s="174"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="183"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -6019,23 +5892,23 @@
       <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="185" t="s">
+      <c r="B52" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="189"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="188" t="s">
+      <c r="C53" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="189"/>
-      <c r="E53" s="190"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -6050,132 +5923,132 @@
       <c r="B54" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="172" t="s">
+      <c r="C54" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
+      <c r="D54" s="182"/>
+      <c r="E54" s="183"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="172" t="s">
+      <c r="C55" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="173"/>
-      <c r="E55" s="174"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="183"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="37"/>
       <c r="B56" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="172" t="s">
+      <c r="C56" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="173"/>
-      <c r="E56" s="174"/>
+      <c r="D56" s="182"/>
+      <c r="E56" s="183"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="37"/>
       <c r="B57" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="172" t="s">
+      <c r="C57" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="179"/>
-      <c r="E57" s="180"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="186"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="37"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="172" t="s">
+      <c r="C58" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="179"/>
-      <c r="E58" s="180"/>
+      <c r="D58" s="185"/>
+      <c r="E58" s="186"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="37"/>
       <c r="B59" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="172" t="s">
+      <c r="C59" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="179"/>
-      <c r="E59" s="180"/>
+      <c r="D59" s="185"/>
+      <c r="E59" s="186"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="37"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="179"/>
-      <c r="E60" s="180"/>
+      <c r="D60" s="185"/>
+      <c r="E60" s="186"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="37"/>
       <c r="B61" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="181" t="s">
+      <c r="C61" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="179"/>
-      <c r="E61" s="180"/>
+      <c r="D61" s="185"/>
+      <c r="E61" s="186"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="37"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="172" t="s">
+      <c r="C62" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="180"/>
+      <c r="D62" s="185"/>
+      <c r="E62" s="186"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="37"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="181" t="s">
+      <c r="C63" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="179"/>
-      <c r="E63" s="180"/>
+      <c r="D63" s="185"/>
+      <c r="E63" s="186"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="37"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="181" t="s">
+      <c r="C64" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="179"/>
-      <c r="E64" s="180"/>
+      <c r="D64" s="185"/>
+      <c r="E64" s="186"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="37"/>
       <c r="B65" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="172" t="s">
+      <c r="C65" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="173"/>
-      <c r="E65" s="174"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="183"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="37"/>
@@ -6186,200 +6059,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="37"/>
-      <c r="B67" s="175"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="175"/>
+      <c r="B67" s="210"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="210"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="37"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
+      <c r="B68" s="209"/>
+      <c r="C68" s="209"/>
+      <c r="D68" s="209"/>
+      <c r="E68" s="209"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="37"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="171"/>
+      <c r="B69" s="209"/>
+      <c r="C69" s="209"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="209"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="37"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="171"/>
+      <c r="B70" s="209"/>
+      <c r="C70" s="209"/>
+      <c r="D70" s="209"/>
+      <c r="E70" s="209"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="37"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="171"/>
-      <c r="D71" s="171"/>
-      <c r="E71" s="171"/>
+      <c r="B71" s="209"/>
+      <c r="C71" s="209"/>
+      <c r="D71" s="209"/>
+      <c r="E71" s="209"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="37"/>
-      <c r="B72" s="171"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="171"/>
+      <c r="B72" s="209"/>
+      <c r="C72" s="209"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="209"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="42"/>
-      <c r="B73" s="171"/>
-      <c r="C73" s="171"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="171"/>
+      <c r="B73" s="209"/>
+      <c r="C73" s="209"/>
+      <c r="D73" s="209"/>
+      <c r="E73" s="209"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="37"/>
-      <c r="B74" s="171"/>
-      <c r="C74" s="171"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="171"/>
+      <c r="B74" s="209"/>
+      <c r="C74" s="209"/>
+      <c r="D74" s="209"/>
+      <c r="E74" s="209"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="37"/>
-      <c r="B75" s="171"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="171"/>
+      <c r="B75" s="209"/>
+      <c r="C75" s="209"/>
+      <c r="D75" s="209"/>
+      <c r="E75" s="209"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="37"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="171"/>
+      <c r="B76" s="209"/>
+      <c r="C76" s="209"/>
+      <c r="D76" s="209"/>
+      <c r="E76" s="209"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="37"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="171"/>
+      <c r="B77" s="209"/>
+      <c r="C77" s="209"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="37"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
-      <c r="E78" s="171"/>
+      <c r="B78" s="209"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="42"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
-      <c r="E79" s="171"/>
+      <c r="B79" s="209"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="42"/>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="171"/>
+      <c r="B80" s="209"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="42"/>
-      <c r="B81" s="171"/>
-      <c r="C81" s="171"/>
-      <c r="D81" s="171"/>
-      <c r="E81" s="171"/>
+      <c r="B81" s="209"/>
+      <c r="C81" s="209"/>
+      <c r="D81" s="209"/>
+      <c r="E81" s="209"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="42"/>
-      <c r="B82" s="171"/>
-      <c r="C82" s="171"/>
-      <c r="D82" s="171"/>
-      <c r="E82" s="171"/>
+      <c r="B82" s="209"/>
+      <c r="C82" s="209"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="209"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="42"/>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
+      <c r="B83" s="209"/>
+      <c r="C83" s="209"/>
+      <c r="D83" s="209"/>
+      <c r="E83" s="209"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="42"/>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="209"/>
+      <c r="D84" s="209"/>
+      <c r="E84" s="209"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="42"/>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
+      <c r="B85" s="209"/>
+      <c r="C85" s="209"/>
+      <c r="D85" s="209"/>
+      <c r="E85" s="209"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="42"/>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
+      <c r="B86" s="209"/>
+      <c r="C86" s="209"/>
+      <c r="D86" s="209"/>
+      <c r="E86" s="209"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6392,36 +6265,27 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6438,27 +6302,36 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6474,8 +6347,8 @@
   </sheetPr>
   <dimension ref="A3:Y45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6496,91 +6369,91 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="216" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="202" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="214"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="207" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="202" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
+      <c r="B7" s="211" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="212"/>
+      <c r="D7" s="213" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="214"/>
+      <c r="F7" s="215"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="202" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="208"/>
+      <c r="C9" s="212"/>
       <c r="D9" s="158">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="E9" s="108" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="145">
-        <v>41844</v>
+        <v>42290</v>
       </c>
       <c r="H9" s="159"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="202" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="203"/>
-      <c r="F10" s="204"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6642,7 +6515,7 @@
         <v>167</v>
       </c>
       <c r="E13" s="150" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F13" s="144" t="s">
         <v>172</v>
@@ -6651,10 +6524,10 @@
         <v>171</v>
       </c>
       <c r="H13" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I13" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J13" s="147">
         <v>2</v>
@@ -6681,7 +6554,7 @@
         <v>167</v>
       </c>
       <c r="E14" s="150" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F14" s="144" t="s">
         <v>172</v>
@@ -6690,10 +6563,10 @@
         <v>171</v>
       </c>
       <c r="H14" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I14" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J14" s="147">
         <v>2</v>
@@ -6720,7 +6593,7 @@
         <v>167</v>
       </c>
       <c r="E15" s="150" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F15" s="144" t="s">
         <v>172</v>
@@ -6729,10 +6602,10 @@
         <v>171</v>
       </c>
       <c r="H15" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I15" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J15" s="147">
         <v>1.5</v>
@@ -6759,7 +6632,7 @@
         <v>167</v>
       </c>
       <c r="E16" s="150" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F16" s="144" t="s">
         <v>172</v>
@@ -6768,10 +6641,10 @@
         <v>171</v>
       </c>
       <c r="H16" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I16" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J16" s="147">
         <v>2</v>
@@ -6798,7 +6671,7 @@
         <v>167</v>
       </c>
       <c r="E17" s="150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F17" s="144" t="s">
         <v>172</v>
@@ -6807,10 +6680,10 @@
         <v>171</v>
       </c>
       <c r="H17" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I17" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J17" s="147">
         <v>2</v>
@@ -6837,7 +6710,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="150" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F18" s="144" t="s">
         <v>172</v>
@@ -6846,10 +6719,10 @@
         <v>171</v>
       </c>
       <c r="H18" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I18" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J18" s="147">
         <v>3</v>
@@ -6876,7 +6749,7 @@
         <v>167</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F19" s="144" t="s">
         <v>172</v>
@@ -6885,10 +6758,10 @@
         <v>171</v>
       </c>
       <c r="H19" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I19" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J19" s="147">
         <v>3</v>
@@ -6915,7 +6788,7 @@
         <v>168</v>
       </c>
       <c r="E20" s="151" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F20" s="144" t="s">
         <v>172</v>
@@ -6924,10 +6797,10 @@
         <v>171</v>
       </c>
       <c r="H20" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I20" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J20" s="147">
         <v>1</v>
@@ -6954,7 +6827,7 @@
         <v>168</v>
       </c>
       <c r="E21" s="153" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F21" s="144" t="s">
         <v>172</v>
@@ -6963,10 +6836,10 @@
         <v>171</v>
       </c>
       <c r="H21" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I21" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J21" s="147">
         <v>1</v>
@@ -6993,7 +6866,7 @@
         <v>168</v>
       </c>
       <c r="E22" s="153" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F22" s="144" t="s">
         <v>172</v>
@@ -7002,10 +6875,10 @@
         <v>171</v>
       </c>
       <c r="H22" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I22" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J22" s="147">
         <v>1</v>
@@ -7032,7 +6905,7 @@
         <v>168</v>
       </c>
       <c r="E23" s="153" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F23" s="144" t="s">
         <v>172</v>
@@ -7041,10 +6914,10 @@
         <v>171</v>
       </c>
       <c r="H23" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I23" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J23" s="147">
         <v>1.5</v>
@@ -7071,7 +6944,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="153" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F24" s="144" t="s">
         <v>172</v>
@@ -7080,10 +6953,10 @@
         <v>171</v>
       </c>
       <c r="H24" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I24" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J24" s="147">
         <v>1</v>
@@ -7110,7 +6983,7 @@
         <v>168</v>
       </c>
       <c r="E25" s="154" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F25" s="144" t="s">
         <v>172</v>
@@ -7119,10 +6992,10 @@
         <v>171</v>
       </c>
       <c r="H25" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I25" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J25" s="147">
         <v>2</v>
@@ -7149,7 +7022,7 @@
         <v>166</v>
       </c>
       <c r="E26" s="156" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="144" t="s">
         <v>172</v>
@@ -7158,10 +7031,10 @@
         <v>171</v>
       </c>
       <c r="H26" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I26" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J26" s="147">
         <v>1</v>
@@ -7188,7 +7061,7 @@
         <v>166</v>
       </c>
       <c r="E27" s="157" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F27" s="144" t="s">
         <v>172</v>
@@ -7197,10 +7070,10 @@
         <v>171</v>
       </c>
       <c r="H27" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I27" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J27" s="147">
         <v>2</v>
@@ -7227,7 +7100,7 @@
         <v>166</v>
       </c>
       <c r="E28" s="156" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F28" s="144" t="s">
         <v>172</v>
@@ -7236,10 +7109,10 @@
         <v>171</v>
       </c>
       <c r="H28" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I28" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J28" s="147">
         <v>2.5</v>
@@ -7267,7 +7140,7 @@
         <v>166</v>
       </c>
       <c r="E29" s="151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F29" s="144" t="s">
         <v>172</v>
@@ -7276,10 +7149,10 @@
         <v>171</v>
       </c>
       <c r="H29" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I29" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J29" s="147">
         <v>2</v>
@@ -7307,7 +7180,7 @@
         <v>166</v>
       </c>
       <c r="E30" s="151" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F30" s="144" t="s">
         <v>172</v>
@@ -7316,10 +7189,10 @@
         <v>171</v>
       </c>
       <c r="H30" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I30" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J30" s="147">
         <v>1.5</v>
@@ -7344,10 +7217,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E31" s="153" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F31" s="144" t="s">
         <v>172</v>
@@ -7356,10 +7229,10 @@
         <v>171</v>
       </c>
       <c r="H31" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I31" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J31" s="147">
         <v>1.5</v>
@@ -7384,10 +7257,10 @@
         <v>156</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E32" s="153" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F32" s="144" t="s">
         <v>172</v>
@@ -7396,10 +7269,10 @@
         <v>171</v>
       </c>
       <c r="H32" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I32" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J32" s="147">
         <v>1</v>
@@ -7424,10 +7297,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E33" s="153" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F33" s="144" t="s">
         <v>172</v>
@@ -7436,10 +7309,10 @@
         <v>171</v>
       </c>
       <c r="H33" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I33" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J33" s="147">
         <v>0.5</v>
@@ -7467,7 +7340,7 @@
         <v>170</v>
       </c>
       <c r="E34" s="164" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="165" t="s">
         <v>172</v>
@@ -7475,19 +7348,19 @@
       <c r="G34" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="166">
-        <v>41832</v>
-      </c>
-      <c r="I34" s="166">
-        <v>41832</v>
-      </c>
-      <c r="J34" s="167">
+      <c r="H34" s="145">
+        <v>42290</v>
+      </c>
+      <c r="I34" s="145">
+        <v>42290</v>
+      </c>
+      <c r="J34" s="166">
         <v>1.5</v>
       </c>
-      <c r="K34" s="168">
+      <c r="K34" s="167">
         <v>41979</v>
       </c>
-      <c r="L34" s="169">
+      <c r="L34" s="168">
         <v>41840</v>
       </c>
       <c r="M34" s="105">
@@ -7504,10 +7377,10 @@
         <v>156</v>
       </c>
       <c r="D35" s="160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E35" s="144" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F35" s="144" t="s">
         <v>172</v>
@@ -7516,10 +7389,10 @@
         <v>171</v>
       </c>
       <c r="H35" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I35" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J35" s="147">
         <v>1.5</v>
@@ -7545,7 +7418,7 @@
         <v>170</v>
       </c>
       <c r="E36" s="144" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F36" s="144" t="s">
         <v>172</v>
@@ -7554,10 +7427,10 @@
         <v>171</v>
       </c>
       <c r="H36" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="I36" s="145">
-        <v>41832</v>
+        <v>42290</v>
       </c>
       <c r="J36" s="147">
         <v>2</v>
@@ -7665,17 +7538,17 @@
     <row r="45" spans="1:14" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -7697,8 +7570,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7708,10 +7580,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7732,22 +7604,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="211"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="220"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7829,7 +7701,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E5" s="111" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7840,7 +7712,7 @@
         <v>BC</v>
       </c>
       <c r="G5" s="114" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H5" s="113" t="s">
         <v>153</v>
@@ -7875,7 +7747,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="111" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7886,7 +7758,7 @@
         <v>BC</v>
       </c>
       <c r="G6" s="114" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H6" s="113" t="s">
         <v>153</v>
@@ -7921,7 +7793,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D7" s="112" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E7" s="111" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7932,7 +7804,7 @@
         <v>BC</v>
       </c>
       <c r="G7" s="114" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H7" s="113" t="s">
         <v>153</v>
@@ -7959,93 +7831,93 @@
       <c r="A8" s="109">
         <v>4</v>
       </c>
-      <c r="B8" s="233">
+      <c r="B8" s="169">
         <v>3</v>
       </c>
-      <c r="C8" s="234" t="str">
+      <c r="C8" s="170" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="235" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="234" t="str">
+      <c r="D8" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="170" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F8" s="234" t="str">
+      <c r="F8" s="170" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G8" s="236" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="237" t="s">
+      <c r="G8" s="172" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="237" t="s">
+      <c r="I8" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="237" t="s">
+      <c r="J8" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="238"/>
-      <c r="L8" s="239">
+      <c r="K8" s="174"/>
+      <c r="L8" s="175">
         <v>41835</v>
       </c>
-      <c r="M8" s="239">
+      <c r="M8" s="175">
         <v>41841</v>
       </c>
-      <c r="N8" s="240">
+      <c r="N8" s="176">
         <v>1</v>
       </c>
-      <c r="O8" s="241"/>
+      <c r="O8" s="177"/>
     </row>
     <row r="9" spans="1:15" ht="24">
       <c r="A9" s="109">
         <v>5</v>
       </c>
-      <c r="B9" s="233">
+      <c r="B9" s="169">
         <v>3</v>
       </c>
-      <c r="C9" s="234" t="str">
+      <c r="C9" s="170" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="235" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="234" t="str">
+      <c r="D9" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="170" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F9" s="234" t="str">
+      <c r="F9" s="170" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G9" s="236" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="237" t="s">
+      <c r="G9" s="172" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="237" t="s">
+      <c r="I9" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="237" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="238"/>
-      <c r="L9" s="239">
+      <c r="J9" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175">
         <v>41835</v>
       </c>
-      <c r="M9" s="239">
+      <c r="M9" s="175">
         <v>41841</v>
       </c>
-      <c r="N9" s="240">
+      <c r="N9" s="176">
         <v>1</v>
       </c>
-      <c r="O9" s="241"/>
+      <c r="O9" s="177"/>
     </row>
     <row r="10" spans="1:15" ht="24">
       <c r="A10" s="109">
@@ -8059,7 +7931,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E10" s="111" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8070,7 +7942,7 @@
         <v>BC</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H10" s="113" t="s">
         <v>153</v>
@@ -8104,7 +7976,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="112" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>172</v>
@@ -8113,7 +7985,7 @@
         <v>171</v>
       </c>
       <c r="G11" s="161" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H11" s="113" t="s">
         <v>153</v>
@@ -8147,7 +8019,7 @@
         <v>156</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E12" s="111" t="s">
         <v>172</v>
@@ -8156,7 +8028,7 @@
         <v>171</v>
       </c>
       <c r="G12" s="114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H12" s="113" t="s">
         <v>153</v>
@@ -8191,7 +8063,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D13" s="112" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E13" s="111" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8202,7 +8074,7 @@
         <v>BC</v>
       </c>
       <c r="G13" s="114" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H13" s="113" t="s">
         <v>153</v>
@@ -8225,51 +8097,51 @@
       </c>
       <c r="O13" s="130"/>
     </row>
-    <row r="14" spans="1:15" s="242" customFormat="1" ht="24">
+    <row r="14" spans="1:15" s="178" customFormat="1" ht="24">
       <c r="A14" s="109">
         <v>10</v>
       </c>
-      <c r="B14" s="233">
+      <c r="B14" s="169">
         <v>3</v>
       </c>
-      <c r="C14" s="234" t="str">
+      <c r="C14" s="170" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="235" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="234" t="str">
+      <c r="D14" s="171" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="170" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F14" s="234" t="str">
+      <c r="F14" s="170" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G14" s="243" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="237" t="s">
+      <c r="G14" s="179" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="237" t="s">
+      <c r="I14" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="237" t="s">
+      <c r="J14" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="238"/>
-      <c r="L14" s="239">
+      <c r="K14" s="174"/>
+      <c r="L14" s="175">
         <v>41835</v>
       </c>
-      <c r="M14" s="239">
+      <c r="M14" s="175">
         <v>41841</v>
       </c>
-      <c r="N14" s="240">
+      <c r="N14" s="176">
         <v>1</v>
       </c>
-      <c r="O14" s="241"/>
+      <c r="O14" s="177"/>
     </row>
     <row r="15" spans="1:15" ht="24">
       <c r="A15" s="109">
@@ -8283,7 +8155,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E15" s="111" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8294,7 +8166,7 @@
         <v>BC</v>
       </c>
       <c r="G15" s="114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H15" s="113" t="s">
         <v>154</v>
@@ -8303,7 +8175,7 @@
         <v>95</v>
       </c>
       <c r="J15" s="113" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K15" s="115"/>
       <c r="L15" s="116">
@@ -8329,7 +8201,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E16" s="111" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8340,7 +8212,7 @@
         <v>BC</v>
       </c>
       <c r="G16" s="114" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H16" s="113" t="s">
         <v>153</v>
@@ -8349,7 +8221,7 @@
         <v>95</v>
       </c>
       <c r="J16" s="113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K16" s="115"/>
       <c r="L16" s="116">
@@ -8375,7 +8247,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E17" s="111" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8386,7 +8258,7 @@
         <v>BC</v>
       </c>
       <c r="G17" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H17" s="113" t="s">
         <v>153</v>
@@ -8395,7 +8267,7 @@
         <v>95</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K17" s="115"/>
       <c r="L17" s="116">
@@ -8421,7 +8293,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D18" s="112" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E18" s="111" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8432,7 +8304,7 @@
         <v>BC</v>
       </c>
       <c r="G18" s="114" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H18" s="113" t="s">
         <v>153</v>
@@ -8467,7 +8339,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D19" s="112" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E19" s="111" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8478,7 +8350,7 @@
         <v>BC</v>
       </c>
       <c r="G19" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H19" s="113" t="s">
         <v>153</v>
@@ -8513,7 +8385,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E20" s="111" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8524,7 +8396,7 @@
         <v>BC</v>
       </c>
       <c r="G20" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H20" s="113" t="s">
         <v>153</v>
@@ -8559,7 +8431,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E21" s="111" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8570,7 +8442,7 @@
         <v>BC</v>
       </c>
       <c r="G21" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H21" s="113" t="s">
         <v>153</v>
@@ -8605,7 +8477,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E22" s="111" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8616,7 +8488,7 @@
         <v>BC</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H22" s="113" t="s">
         <v>153</v>
@@ -8651,7 +8523,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D23" s="112" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E23" s="111" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8662,7 +8534,7 @@
         <v>BC</v>
       </c>
       <c r="G23" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H23" s="113" t="s">
         <v>153</v>
@@ -8697,7 +8569,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D24" s="112" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E24" s="111" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8708,7 +8580,7 @@
         <v>BC</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H24" s="113" t="s">
         <v>153</v>
@@ -8743,7 +8615,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D25" s="112" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E25" s="111" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8754,7 +8626,7 @@
         <v>BC</v>
       </c>
       <c r="G25" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H25" s="113" t="s">
         <v>153</v>
@@ -8789,7 +8661,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D26" s="112" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E26" s="111" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8800,7 +8672,7 @@
         <v>BC</v>
       </c>
       <c r="G26" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H26" s="113" t="s">
         <v>153</v>
@@ -8835,7 +8707,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E27" s="111" t="str">
         <f>VLOOKUP(B27,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8846,7 +8718,7 @@
         <v>BC</v>
       </c>
       <c r="G27" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H27" s="113" t="s">
         <v>153</v>
@@ -8881,7 +8753,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D28" s="112" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E28" s="111" t="str">
         <f>VLOOKUP(B28,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8892,7 +8764,7 @@
         <v>BC</v>
       </c>
       <c r="G28" s="114" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H28" s="113" t="s">
         <v>153</v>
@@ -9142,7 +9014,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -9158,107 +9030,107 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214" t="str">
+      <c r="D4" s="235"/>
+      <c r="E4" s="224" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
-        <v>YM</v>
-      </c>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="216"/>
+        <v>Roger Apaestegui Ortega</v>
+      </c>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="226"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="217" t="str">
+      <c r="C5" s="236" t="str">
         <f>Planificación!B7</f>
-        <v>Gestor de Calidad</v>
-      </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="214" t="str">
+        <v>Analista de Calidad</v>
+      </c>
+      <c r="D5" s="237"/>
+      <c r="E5" s="224" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
-        <v>BC</v>
-      </c>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="216"/>
+        <v>Julio Leonardo Paredes</v>
+      </c>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="226"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="214" t="str">
+      <c r="D6" s="223"/>
+      <c r="E6" s="224" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
-        <v>HM, JG, RR</v>
-      </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="216"/>
+        <v>Julio Leonardo Paredes</v>
+      </c>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="224">
+      <c r="D7" s="228"/>
+      <c r="E7" s="229">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
-        <v>41832</v>
-      </c>
-      <c r="F7" s="225"/>
-      <c r="G7" s="226" t="s">
+        <v>42290</v>
+      </c>
+      <c r="F7" s="230"/>
+      <c r="G7" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="227"/>
+      <c r="H7" s="232"/>
       <c r="I7" s="118">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
-        <v>41844</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="214" t="str">
+      <c r="D8" s="233"/>
+      <c r="E8" s="224" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
-        <v>JULIO</v>
-      </c>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
+        <v>OCTUBRE</v>
+      </c>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="222"/>
+      <c r="D13" s="227"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -9342,10 +9214,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="219"/>
+      <c r="D26" s="221"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -9419,10 +9291,10 @@
       </c>
     </row>
     <row r="40" spans="3:4" ht="15">
-      <c r="C40" s="219" t="s">
+      <c r="C40" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="219"/>
+      <c r="D40" s="221"/>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="123" t="s">
@@ -9452,10 +9324,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="219" t="s">
+      <c r="C57" s="221" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="219"/>
+      <c r="D57" s="221"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="34" t="s">
@@ -9503,6 +9375,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -9514,11 +9391,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9592,7 +9464,7 @@
       <c r="H3" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="229" t="s">
+      <c r="J3" s="238" t="s">
         <v>117</v>
       </c>
       <c r="K3" s="138" t="s">
@@ -9600,7 +9472,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="239" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="135" t="s">
@@ -9615,13 +9487,13 @@
       <c r="H4" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="229"/>
+      <c r="J4" s="238"/>
       <c r="K4" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="231"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="136" t="s">
         <v>167</v>
       </c>
@@ -9634,13 +9506,13 @@
       <c r="H5" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="229"/>
+      <c r="J5" s="238"/>
       <c r="K5" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="231"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="136" t="s">
         <v>168</v>
       </c>
@@ -9648,13 +9520,13 @@
         <v>155</v>
       </c>
       <c r="H6" s="125"/>
-      <c r="J6" s="229"/>
+      <c r="J6" s="238"/>
       <c r="K6" s="138" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="231"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="136" t="s">
         <v>169</v>
       </c>
@@ -9662,7 +9534,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="125"/>
-      <c r="J7" s="229" t="s">
+      <c r="J7" s="238" t="s">
         <v>126</v>
       </c>
       <c r="K7" s="138" t="s">
@@ -9670,7 +9542,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="231"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="136" t="s">
         <v>170</v>
       </c>
@@ -9678,54 +9550,54 @@
         <v>36</v>
       </c>
       <c r="H8" s="125"/>
-      <c r="J8" s="229"/>
+      <c r="J8" s="238"/>
       <c r="K8" s="138" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="231"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="139"/>
-      <c r="J9" s="229"/>
+      <c r="J9" s="238"/>
       <c r="K9" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="231"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="136"/>
       <c r="F10" s="131"/>
-      <c r="J10" s="229"/>
+      <c r="J10" s="238"/>
       <c r="K10" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="231"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="136"/>
       <c r="F11" s="131"/>
-      <c r="J11" s="229"/>
+      <c r="J11" s="238"/>
       <c r="K11" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="232"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="137"/>
       <c r="F12" s="131"/>
-      <c r="J12" s="229"/>
+      <c r="J12" s="238"/>
       <c r="K12" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="J13" s="229"/>
+      <c r="J13" s="238"/>
       <c r="K13" s="138" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="J14" s="229" t="s">
+      <c r="J14" s="238" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="138" t="s">
@@ -9733,61 +9605,61 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="J15" s="229"/>
+      <c r="J15" s="238"/>
       <c r="K15" s="138" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="J16" s="229"/>
+      <c r="J16" s="238"/>
       <c r="K16" s="138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="10:11">
-      <c r="J17" s="229"/>
+      <c r="J17" s="238"/>
       <c r="K17" s="138" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="10:11">
-      <c r="J18" s="229"/>
+      <c r="J18" s="238"/>
       <c r="K18" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="10:11">
-      <c r="J19" s="229"/>
+      <c r="J19" s="238"/>
       <c r="K19" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="10:11">
-      <c r="J20" s="229"/>
+      <c r="J20" s="238"/>
       <c r="K20" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="10:11">
-      <c r="J21" s="229"/>
+      <c r="J21" s="238"/>
       <c r="K21" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="10:11">
-      <c r="J22" s="229"/>
+      <c r="J22" s="238"/>
       <c r="K22" s="138" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="229"/>
+      <c r="J23" s="238"/>
       <c r="K23" s="138" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="10:11">
-      <c r="J24" s="229" t="s">
+      <c r="J24" s="238" t="s">
         <v>120</v>
       </c>
       <c r="K24" s="138" t="s">
@@ -9795,43 +9667,43 @@
       </c>
     </row>
     <row r="25" spans="10:11">
-      <c r="J25" s="229"/>
+      <c r="J25" s="238"/>
       <c r="K25" s="138" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="10:11">
-      <c r="J26" s="229"/>
+      <c r="J26" s="238"/>
       <c r="K26" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="10:11">
-      <c r="J27" s="229"/>
+      <c r="J27" s="238"/>
       <c r="K27" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="10:11">
-      <c r="J28" s="229"/>
+      <c r="J28" s="238"/>
       <c r="K28" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:11">
-      <c r="J29" s="229"/>
+      <c r="J29" s="238"/>
       <c r="K29" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="10:11">
-      <c r="J30" s="229"/>
+      <c r="J30" s="238"/>
       <c r="K30" s="138" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="10:11">
-      <c r="J31" s="229" t="s">
+      <c r="J31" s="238" t="s">
         <v>121</v>
       </c>
       <c r="K31" s="138" t="s">
@@ -9839,31 +9711,31 @@
       </c>
     </row>
     <row r="32" spans="10:11">
-      <c r="J32" s="229"/>
+      <c r="J32" s="238"/>
       <c r="K32" s="138" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="229"/>
+      <c r="J33" s="238"/>
       <c r="K33" s="138" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="229"/>
+      <c r="J34" s="238"/>
       <c r="K34" s="138" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="229"/>
+      <c r="J35" s="238"/>
       <c r="K35" s="138" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="229" t="s">
+      <c r="J36" s="238" t="s">
         <v>122</v>
       </c>
       <c r="K36" s="138" t="s">
@@ -9871,37 +9743,37 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="229"/>
+      <c r="J37" s="238"/>
       <c r="K37" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="229"/>
+      <c r="J38" s="238"/>
       <c r="K38" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="229"/>
+      <c r="J39" s="238"/>
       <c r="K39" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="229"/>
+      <c r="J40" s="238"/>
       <c r="K40" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="229"/>
+      <c r="J41" s="238"/>
       <c r="K41" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="229"/>
+      <c r="J42" s="238"/>
       <c r="K42" s="138" t="s">
         <v>131</v>
       </c>

--- a/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA_V1.0_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="642" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="642" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <author>GMD</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="N4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="227">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -656,15 +656,9 @@
     <t>Revisado / Auditado</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Responsable (s) de levantar no conformidad</t>
   </si>
   <si>
-    <t>Entregable / Proceso revisado</t>
-  </si>
-  <si>
     <t>Entregable / Proceso</t>
   </si>
   <si>
@@ -689,138 +683,9 @@
     <t>MA</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>YM</t>
-  </si>
-  <si>
     <t>Jefe de Proyecto:</t>
   </si>
   <si>
-    <t>Incluir Analista Programador</t>
-  </si>
-  <si>
-    <t>PP_PMC/PGPRO</t>
-  </si>
-  <si>
-    <t>PP_PMC/PPRO</t>
-  </si>
-  <si>
-    <t>REQM/LMR</t>
-  </si>
-  <si>
-    <t>Analizar si se considerara modulo de administrador</t>
-  </si>
-  <si>
-    <t>PPQA/PAC</t>
-  </si>
-  <si>
-    <t>Llenar la lista de usuarios con los roles</t>
-  </si>
-  <si>
-    <t>YM,JG,RR,BC,HM</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
-    <t>PP_PMC/CPRO</t>
-  </si>
-  <si>
-    <t>Corregir las fechas planficacion de acuerdo al avance de la ultima presentacion</t>
-  </si>
-  <si>
-    <t>Cambiar la descripcion de los procesos de negocios</t>
-  </si>
-  <si>
-    <t>PP_PMC/Documento de diseño</t>
-  </si>
-  <si>
-    <t>PP_PMC/Documento de analisis</t>
-  </si>
-  <si>
-    <t>Cambiar la especificaciones funcionales</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>PP_PMC/REGR</t>
-  </si>
-  <si>
-    <t>Actualizar la fuente de informacion</t>
-  </si>
-  <si>
-    <t>REQM/PGREQM</t>
-  </si>
-  <si>
-    <t>Actualizar los roles y responsabilidades</t>
-  </si>
-  <si>
-    <t>Modificar modulo de pagos: Mensaje de confirmacion de envio</t>
-  </si>
-  <si>
-    <t>REQM/MTREQM</t>
-  </si>
-  <si>
-    <t>Actulizar la Descripción de requerimiento de usuario</t>
-  </si>
-  <si>
-    <t>REQM/SCREQM</t>
-  </si>
-  <si>
-    <t>Completar Solicitud de cambios de requerimientos</t>
-  </si>
-  <si>
-    <t>MA/TM_0.1_2014</t>
-  </si>
-  <si>
-    <t>GESTION DE LA CONFIGURACION/MPP_PMC</t>
-  </si>
-  <si>
-    <t>MA/ICIC</t>
-  </si>
-  <si>
-    <t>GESTION DE LA CONFIGURACION/SOLACC</t>
-  </si>
-  <si>
-    <t>GESTION DE LA CONFIGURACION/REGITCON</t>
-  </si>
-  <si>
-    <t>GESTION DE LA CONFIGURACION/PGC</t>
-  </si>
-  <si>
-    <t>PPQA/CHKPRO</t>
-  </si>
-  <si>
-    <t>PPQA/MSPI</t>
-  </si>
-  <si>
-    <t>PPQA/NUMNC</t>
-  </si>
-  <si>
-    <t>PPQA/HGPRD</t>
-  </si>
-  <si>
-    <t>REQM/VREQM</t>
-  </si>
-  <si>
-    <t>REQM/RCR</t>
-  </si>
-  <si>
-    <t>REQM/EXPRI</t>
-  </si>
-  <si>
-    <t>No hay no conformidades</t>
-  </si>
-  <si>
-    <t>Actualizar Roles y responsabilidades</t>
-  </si>
-  <si>
-    <t>Actualizar la tabla de base de datos y actualizar el numero de productos</t>
-  </si>
-  <si>
     <t>Fecha Efectiva: 13/10/2015</t>
   </si>
   <si>
@@ -981,6 +846,21 @@
   </si>
   <si>
     <t>Informe de revision de QA SOFTWARE</t>
+  </si>
+  <si>
+    <t>Indice Items de Configuracion</t>
+  </si>
+  <si>
+    <t>PROCESO</t>
+  </si>
+  <si>
+    <t>ENTREGABLE</t>
+  </si>
+  <si>
+    <t>Revisar</t>
+  </si>
+  <si>
+    <t>colocar fecha</t>
   </si>
 </sst>
 </file>
@@ -993,7 +873,7 @@
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1354,12 +1234,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
       <color rgb="FF005F80"/>
@@ -1413,6 +1287,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2262,7 +2150,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2550,9 +2438,6 @@
     <xf numFmtId="0" fontId="45" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2677,10 +2562,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2695,20 +2576,9 @@
     <xf numFmtId="167" fontId="58" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2717,23 +2587,12 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2746,6 +2605,104 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="23" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="47" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="42" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="43" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="44" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="45" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="46" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="47" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="48" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2762,6 +2719,9 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2798,9 +2758,70 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="35" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="36" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="50" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="49" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="51" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2813,18 +2834,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2916,144 +2941,14 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="42" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="43" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="44" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="45" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="47" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="47" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="34" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="36" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="23" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="50" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="49" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="51" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3269,9 +3164,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3588,9 +3481,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3609,9 +3500,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3630,9 +3519,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3667,9 +3554,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4003,7 +3888,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4047,11 +3931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159441552"/>
-        <c:axId val="159442112"/>
+        <c:axId val="157205168"/>
+        <c:axId val="157205728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159441552"/>
+        <c:axId val="157205168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +3970,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159442112"/>
+        <c:crossAx val="157205728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4096,7 +3980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159442112"/>
+        <c:axId val="157205728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +4025,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159441552"/>
+        <c:crossAx val="157205168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4417,7 +4301,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4429,7 +4312,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4494,7 +4377,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4571,7 +4453,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4599,12 +4480,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="162054560"/>
-        <c:axId val="162055120"/>
+        <c:axId val="157209088"/>
+        <c:axId val="155209184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="162054560"/>
+        <c:axId val="157209088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,7 +4559,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162055120"/>
+        <c:crossAx val="155209184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4688,7 +4569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162055120"/>
+        <c:axId val="155209184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4653,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162054560"/>
+        <c:crossAx val="157209088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5646,56 +5527,56 @@
   <sheetData>
     <row r="2" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B3" s="199" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="201"/>
+      <c r="B3" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B4" s="197"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="202"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="168"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="205"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="53"/>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="53"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
       <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
@@ -5729,29 +5610,29 @@
         <v>1</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D9" s="60">
         <v>42290</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="53"/>
       <c r="B10" s="64"/>
-      <c r="C10" s="107"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="65"/>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
@@ -5762,7 +5643,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="53"/>
       <c r="B11" s="64"/>
-      <c r="C11" s="108"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="69"/>
       <c r="E11" s="66"/>
       <c r="F11" s="70"/>
@@ -5784,7 +5665,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="53"/>
       <c r="B13" s="64"/>
-      <c r="C13" s="112"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="65"/>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
@@ -5795,7 +5676,7 @@
     <row r="14" spans="1:9" ht="13.5" thickBot="1">
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
-      <c r="D14" s="106"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="74"/>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
@@ -5836,110 +5717,110 @@
     <row r="1" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1"/>
     <row r="2" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1">
-      <c r="B3" s="199" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
+      <c r="B3" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1">
-      <c r="B4" s="197"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1">
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1">
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
     </row>
     <row r="7" spans="1:8" s="52" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="B7" s="203"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="205"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
     </row>
     <row r="8" spans="1:8" s="52" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
       <c r="A8" s="36"/>
-      <c r="B8" s="213" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="215"/>
+      <c r="B8" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="197"/>
     </row>
     <row r="9" spans="1:8" s="52" customFormat="1" ht="15.75">
       <c r="A9" s="36"/>
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="233" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="234"/>
-      <c r="E9" s="235"/>
+      <c r="C9" s="207" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="208"/>
+      <c r="E9" s="209"/>
     </row>
     <row r="10" spans="1:8" s="52" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="36"/>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1">
       <c r="A11" s="36"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36"/>
-      <c r="B12" s="218"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1">
       <c r="A13" s="36"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" customHeight="1">
       <c r="A14" s="36"/>
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="230" t="s">
-        <v>222</v>
+      <c r="D14" s="201"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="192" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12" customHeight="1">
@@ -5947,113 +5828,113 @@
       <c r="B15" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="221" t="s">
+      <c r="C15" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="231"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="193"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="220" t="s">
+      <c r="C16" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="231"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="193"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="220" t="s">
+      <c r="C17" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="231"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="193"/>
     </row>
     <row r="18" spans="1:8" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
       <c r="B18" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="232"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="194"/>
       <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="225"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="145"/>
     </row>
     <row r="20" spans="1:8" s="48" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="226"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="146"/>
     </row>
     <row r="21" spans="1:8" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="229" t="s">
+      <c r="C21" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="226"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="146"/>
     </row>
     <row r="22" spans="1:8" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="229" t="s">
+      <c r="C22" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="226"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="146"/>
     </row>
     <row r="23" spans="1:8" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="229" t="s">
+      <c r="C23" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="226"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="146"/>
     </row>
     <row r="24" spans="1:8" s="48" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="229" t="s">
+      <c r="C24" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="226"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="146"/>
     </row>
     <row r="25" spans="1:8" s="48" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="50"/>
@@ -6066,31 +5947,31 @@
       <c r="B26" s="44"/>
     </row>
     <row r="27" spans="1:8" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="186"/>
     </row>
     <row r="28" spans="1:8" s="48" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="34"/>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="159"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
     </row>
@@ -6099,11 +5980,11 @@
       <c r="B30" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
     </row>
@@ -6112,11 +5993,11 @@
       <c r="B31" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="175"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
     </row>
@@ -6125,11 +6006,11 @@
       <c r="B32" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="152"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="175"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
     </row>
@@ -6138,11 +6019,11 @@
       <c r="B33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="151"/>
-      <c r="E33" s="152"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
     </row>
@@ -6151,174 +6032,174 @@
       <c r="B34" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="151"/>
-      <c r="E34" s="152"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="175"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="152"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="175"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="34"/>
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="159"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="183"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="34"/>
       <c r="B37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="151"/>
-      <c r="E37" s="152"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="175"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="151"/>
-      <c r="E38" s="152"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="175"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="152"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="175"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="152"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="175"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="150" t="s">
+      <c r="C41" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="151"/>
-      <c r="E41" s="152"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="175"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="150" t="s">
+      <c r="C42" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="151"/>
-      <c r="E42" s="152"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="150" t="s">
+      <c r="C43" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="152"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="175"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="152"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="175"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="150" t="s">
+      <c r="C45" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="151"/>
-      <c r="E45" s="152"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="175"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="150" t="s">
+      <c r="C46" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="151"/>
-      <c r="E46" s="152"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="175"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="150" t="s">
+      <c r="C47" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="151"/>
-      <c r="E47" s="152"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="175"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="150" t="s">
+      <c r="C48" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="151"/>
-      <c r="E48" s="152"/>
+      <c r="D48" s="174"/>
+      <c r="E48" s="175"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="151"/>
-      <c r="E49" s="152"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="175"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="48"/>
@@ -6351,23 +6232,23 @@
       <c r="M51" s="35"/>
     </row>
     <row r="52" spans="1:13" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="162"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="186"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="48"/>
       <c r="B53" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="163" t="s">
+      <c r="C53" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="164"/>
-      <c r="E53" s="165"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="189"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
@@ -6382,132 +6263,132 @@
       <c r="B54" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="150" t="s">
+      <c r="C54" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="151"/>
-      <c r="E54" s="152"/>
+      <c r="D54" s="174"/>
+      <c r="E54" s="175"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="150" t="s">
+      <c r="C55" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="151"/>
-      <c r="E55" s="152"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="175"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="150" t="s">
+      <c r="C56" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="151"/>
-      <c r="E56" s="152"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="175"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="150" t="s">
+      <c r="C57" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
+      <c r="D57" s="178"/>
+      <c r="E57" s="179"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="150" t="s">
+      <c r="C58" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="154"/>
-      <c r="E58" s="155"/>
+      <c r="D58" s="178"/>
+      <c r="E58" s="179"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="150" t="s">
+      <c r="C59" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="154"/>
-      <c r="E59" s="155"/>
+      <c r="D59" s="178"/>
+      <c r="E59" s="179"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="154"/>
-      <c r="E60" s="155"/>
+      <c r="D60" s="178"/>
+      <c r="E60" s="179"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="156" t="s">
+      <c r="C61" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="154"/>
-      <c r="E61" s="155"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="179"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="150" t="s">
+      <c r="C62" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="154"/>
-      <c r="E62" s="155"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="179"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="156" t="s">
+      <c r="C63" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="154"/>
-      <c r="E63" s="155"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="179"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="156" t="s">
+      <c r="C64" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="154"/>
-      <c r="E64" s="155"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="179"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="151"/>
-      <c r="E65" s="152"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="175"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="34"/>
@@ -6518,200 +6399,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="34"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="34"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
       <c r="F68" s="47"/>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="34"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
       <c r="F69" s="47"/>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="34"/>
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
       <c r="F70" s="47"/>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="34"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
       <c r="F71" s="47"/>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="34"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="172"/>
       <c r="F72" s="47"/>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="149"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172"/>
       <c r="F73" s="47"/>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="34"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="149"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
       <c r="F74" s="47"/>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="34"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="149"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
       <c r="F75" s="47"/>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="34"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="149"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
       <c r="F76" s="47"/>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="34"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="149"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="172"/>
       <c r="F77" s="47"/>
       <c r="G77" s="47"/>
       <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="34"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
-      <c r="E78" s="149"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="172"/>
       <c r="F78" s="47"/>
       <c r="G78" s="47"/>
       <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="38"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
+      <c r="E79" s="172"/>
       <c r="F79" s="47"/>
       <c r="G79" s="47"/>
       <c r="H79" s="47"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="38"/>
-      <c r="B80" s="149"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
+      <c r="B80" s="172"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="172"/>
+      <c r="E80" s="172"/>
       <c r="F80" s="47"/>
       <c r="G80" s="47"/>
       <c r="H80" s="47"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="38"/>
-      <c r="B81" s="149"/>
-      <c r="C81" s="149"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="172"/>
       <c r="F81" s="47"/>
       <c r="G81" s="47"/>
       <c r="H81" s="47"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="38"/>
-      <c r="B82" s="149"/>
-      <c r="C82" s="149"/>
-      <c r="D82" s="149"/>
-      <c r="E82" s="149"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="172"/>
+      <c r="E82" s="172"/>
       <c r="F82" s="47"/>
       <c r="G82" s="47"/>
       <c r="H82" s="47"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="38"/>
-      <c r="B83" s="149"/>
-      <c r="C83" s="149"/>
-      <c r="D83" s="149"/>
-      <c r="E83" s="149"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="172"/>
       <c r="F83" s="47"/>
       <c r="G83" s="47"/>
       <c r="H83" s="47"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="38"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="149"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="149"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
       <c r="F84" s="47"/>
       <c r="G84" s="47"/>
       <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="38"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="149"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="149"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
       <c r="F85" s="47"/>
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="38"/>
-      <c r="B86" s="149"/>
-      <c r="C86" s="149"/>
-      <c r="D86" s="149"/>
-      <c r="E86" s="149"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
       <c r="F86" s="47"/>
       <c r="G86" s="47"/>
       <c r="H86" s="47"/>
@@ -6732,6 +6613,9 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C41:E41"/>
@@ -6753,14 +6637,11 @@
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6812,10 +6693,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6837,120 +6718,120 @@
   <sheetData>
     <row r="1" spans="2:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:25">
-      <c r="B2" s="199" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="201"/>
+      <c r="B2" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="165"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="197"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="202"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="202"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
     </row>
     <row r="6" spans="2:25" ht="13.5" thickBot="1">
-      <c r="B6" s="203"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="205"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
     </row>
     <row r="7" spans="2:25" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239"/>
+      <c r="B7" s="215" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="217"/>
     </row>
     <row r="8" spans="2:25" ht="15" customHeight="1"/>
     <row r="9" spans="2:25" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="171" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
+      <c r="B9" s="210" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="211"/>
+      <c r="D9" s="212" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="171" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="167" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
+      <c r="B10" s="210" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="211"/>
+      <c r="D10" s="212" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="167" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="169"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="240">
+      <c r="C12" s="211"/>
+      <c r="D12" s="148">
         <v>42276</v>
       </c>
       <c r="E12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="241">
+      <c r="F12" s="149">
         <v>42327</v>
       </c>
-      <c r="H12" s="129"/>
+      <c r="H12" s="128"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="167" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
@@ -6970,10 +6851,10 @@
       <c r="D15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="152" t="s">
         <v>157</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -7008,31 +6889,31 @@
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="123">
+      <c r="D16" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="122">
         <v>42290</v>
       </c>
-      <c r="I16" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J16" s="125">
+      <c r="I16" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J16" s="124">
         <v>2</v>
       </c>
-      <c r="K16" s="124">
+      <c r="K16" s="123">
         <v>41979</v>
       </c>
-      <c r="L16" s="124">
+      <c r="L16" s="123">
         <v>41840</v>
       </c>
       <c r="M16" s="84">
@@ -7047,31 +6928,31 @@
       <c r="C17" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="123">
+      <c r="D17" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="122">
         <v>42290</v>
       </c>
-      <c r="I17" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J17" s="125">
+      <c r="I17" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J17" s="124">
         <v>2</v>
       </c>
-      <c r="K17" s="126">
+      <c r="K17" s="125">
         <v>41979</v>
       </c>
-      <c r="L17" s="124">
+      <c r="L17" s="123">
         <v>41840</v>
       </c>
       <c r="M17" s="84">
@@ -7086,31 +6967,31 @@
       <c r="C18" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="123">
+      <c r="D18" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="122">
         <v>42290</v>
       </c>
-      <c r="I18" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J18" s="125">
+      <c r="I18" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J18" s="124">
         <v>1.5</v>
       </c>
-      <c r="K18" s="126">
+      <c r="K18" s="125">
         <v>41979</v>
       </c>
-      <c r="L18" s="124">
+      <c r="L18" s="123">
         <v>41840</v>
       </c>
       <c r="M18" s="84">
@@ -7125,31 +7006,31 @@
       <c r="C19" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="123">
+      <c r="D19" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="122">
         <v>42290</v>
       </c>
-      <c r="I19" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J19" s="125">
+      <c r="I19" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J19" s="124">
         <v>2</v>
       </c>
-      <c r="K19" s="126">
+      <c r="K19" s="125">
         <v>41980</v>
       </c>
-      <c r="L19" s="124">
+      <c r="L19" s="123">
         <v>41840</v>
       </c>
       <c r="M19" s="84">
@@ -7164,31 +7045,31 @@
       <c r="C20" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="123">
+      <c r="D20" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="153" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="122">
         <v>42290</v>
       </c>
-      <c r="I20" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J20" s="125">
+      <c r="I20" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J20" s="124">
         <v>2</v>
       </c>
-      <c r="K20" s="126">
+      <c r="K20" s="125">
         <v>41981</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="123">
         <v>41840</v>
       </c>
       <c r="M20" s="84">
@@ -7203,31 +7084,31 @@
       <c r="C21" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="123">
+      <c r="D21" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="153" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="122">
         <v>42290</v>
       </c>
-      <c r="I21" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J21" s="125">
+      <c r="I21" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J21" s="124">
         <v>3</v>
       </c>
-      <c r="K21" s="126">
+      <c r="K21" s="125">
         <v>41981</v>
       </c>
-      <c r="L21" s="124">
+      <c r="L21" s="123">
         <v>41840</v>
       </c>
       <c r="M21" s="84">
@@ -7242,23 +7123,27 @@
       <c r="C22" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="124"/>
+      <c r="D22" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I22" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="84"/>
       <c r="N22" s="84"/>
     </row>
@@ -7269,23 +7154,27 @@
       <c r="C23" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="124"/>
+      <c r="D23" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I23" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="84"/>
       <c r="N23" s="84"/>
     </row>
@@ -7296,23 +7185,27 @@
       <c r="C24" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="124"/>
+      <c r="D24" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I24" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="84"/>
       <c r="N24" s="84"/>
     </row>
@@ -7323,31 +7216,31 @@
       <c r="C25" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="123">
+      <c r="D25" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="153" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="122">
         <v>42290</v>
       </c>
-      <c r="I25" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J25" s="125">
+      <c r="I25" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J25" s="124">
         <v>1</v>
       </c>
-      <c r="K25" s="126">
+      <c r="K25" s="125">
         <v>41979</v>
       </c>
-      <c r="L25" s="124">
+      <c r="L25" s="123">
         <v>41840</v>
       </c>
       <c r="M25" s="84">
@@ -7359,34 +7252,34 @@
       <c r="B26" s="33">
         <v>11</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="123">
+      <c r="D26" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="122">
         <v>42290</v>
       </c>
-      <c r="I26" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J26" s="125">
+      <c r="I26" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J26" s="124">
         <v>1</v>
       </c>
-      <c r="K26" s="126">
+      <c r="K26" s="125">
         <v>41979</v>
       </c>
-      <c r="L26" s="124">
+      <c r="L26" s="123">
         <v>41840</v>
       </c>
       <c r="M26" s="84">
@@ -7398,34 +7291,34 @@
       <c r="B27" s="33">
         <v>12</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" s="123">
+      <c r="D27" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="122">
         <v>42290</v>
       </c>
-      <c r="I27" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J27" s="125">
+      <c r="I27" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J27" s="124">
         <v>1</v>
       </c>
-      <c r="K27" s="126">
+      <c r="K27" s="125">
         <v>41979</v>
       </c>
-      <c r="L27" s="124">
+      <c r="L27" s="123">
         <v>41840</v>
       </c>
       <c r="M27" s="84">
@@ -7437,34 +7330,34 @@
       <c r="B28" s="33">
         <v>13</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="123">
+      <c r="D28" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="122">
         <v>42290</v>
       </c>
-      <c r="I28" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J28" s="125">
+      <c r="I28" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J28" s="124">
         <v>1.5</v>
       </c>
-      <c r="K28" s="126">
+      <c r="K28" s="125">
         <v>41979</v>
       </c>
-      <c r="L28" s="124">
+      <c r="L28" s="123">
         <v>41840</v>
       </c>
       <c r="M28" s="84">
@@ -7476,34 +7369,34 @@
       <c r="B29" s="33">
         <v>14</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="123">
+      <c r="D29" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="153" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="122">
         <v>42290</v>
       </c>
-      <c r="I29" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J29" s="125">
+      <c r="I29" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J29" s="124">
         <v>1</v>
       </c>
-      <c r="K29" s="126">
+      <c r="K29" s="125">
         <v>41979</v>
       </c>
-      <c r="L29" s="124">
+      <c r="L29" s="123">
         <v>41840</v>
       </c>
       <c r="M29" s="84">
@@ -7515,34 +7408,34 @@
       <c r="B30" s="33">
         <v>15</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="123">
+      <c r="D30" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="153" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="122">
         <v>42290</v>
       </c>
-      <c r="I30" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J30" s="125">
+      <c r="I30" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J30" s="124">
         <v>2</v>
       </c>
-      <c r="K30" s="126">
+      <c r="K30" s="125">
         <v>41979</v>
       </c>
-      <c r="L30" s="124">
+      <c r="L30" s="123">
         <v>41840</v>
       </c>
       <c r="M30" s="84">
@@ -7557,31 +7450,31 @@
       <c r="C31" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="123">
+      <c r="D31" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="153" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="122">
         <v>42290</v>
       </c>
-      <c r="I31" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J31" s="125">
+      <c r="I31" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J31" s="124">
         <v>1</v>
       </c>
-      <c r="K31" s="126">
+      <c r="K31" s="125">
         <v>41979</v>
       </c>
-      <c r="L31" s="124">
+      <c r="L31" s="123">
         <v>41840</v>
       </c>
       <c r="M31" s="84">
@@ -7596,31 +7489,31 @@
       <c r="C32" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="242" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" s="123">
+      <c r="D32" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="122">
         <v>42290</v>
       </c>
-      <c r="I32" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J32" s="125">
+      <c r="I32" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J32" s="124">
         <v>2</v>
       </c>
-      <c r="K32" s="126">
+      <c r="K32" s="125">
         <v>41979</v>
       </c>
-      <c r="L32" s="124">
+      <c r="L32" s="123">
         <v>41840</v>
       </c>
       <c r="M32" s="84">
@@ -7635,31 +7528,31 @@
       <c r="C33" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H33" s="123">
+      <c r="D33" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="122">
         <v>42290</v>
       </c>
-      <c r="I33" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J33" s="125">
+      <c r="I33" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J33" s="124">
         <v>2.5</v>
       </c>
-      <c r="K33" s="126">
+      <c r="K33" s="125">
         <v>41979</v>
       </c>
-      <c r="L33" s="124">
+      <c r="L33" s="123">
         <v>41840</v>
       </c>
       <c r="M33" s="84">
@@ -7675,31 +7568,31 @@
       <c r="C34" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="243" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="123">
+      <c r="D34" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="122">
         <v>42290</v>
       </c>
-      <c r="I34" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J34" s="125">
+      <c r="I34" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J34" s="124">
         <v>2</v>
       </c>
-      <c r="K34" s="126">
+      <c r="K34" s="125">
         <v>41979</v>
       </c>
-      <c r="L34" s="124">
+      <c r="L34" s="123">
         <v>41840</v>
       </c>
       <c r="M34" s="84">
@@ -7715,31 +7608,31 @@
       <c r="C35" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" s="123">
+      <c r="D35" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="122">
         <v>42290</v>
       </c>
-      <c r="I35" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J35" s="125">
+      <c r="I35" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J35" s="124">
         <v>1.5</v>
       </c>
-      <c r="K35" s="126">
+      <c r="K35" s="125">
         <v>41979</v>
       </c>
-      <c r="L35" s="124">
+      <c r="L35" s="123">
         <v>41840</v>
       </c>
       <c r="M35" s="84">
@@ -7752,34 +7645,34 @@
       <c r="B36" s="33">
         <v>21</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="123">
+      <c r="D36" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" s="122">
         <v>42290</v>
       </c>
-      <c r="I36" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J36" s="125">
+      <c r="I36" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J36" s="124">
         <v>1.5</v>
       </c>
-      <c r="K36" s="126">
+      <c r="K36" s="125">
         <v>41979</v>
       </c>
-      <c r="L36" s="124">
+      <c r="L36" s="123">
         <v>41840</v>
       </c>
       <c r="M36" s="84">
@@ -7792,34 +7685,34 @@
       <c r="B37" s="33">
         <v>22</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="123">
+      <c r="D37" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="122">
         <v>42290</v>
       </c>
-      <c r="I37" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J37" s="125">
+      <c r="I37" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J37" s="124">
         <v>1</v>
       </c>
-      <c r="K37" s="126">
+      <c r="K37" s="125">
         <v>41979</v>
       </c>
-      <c r="L37" s="124">
+      <c r="L37" s="123">
         <v>41840</v>
       </c>
       <c r="M37" s="84">
@@ -7832,34 +7725,34 @@
       <c r="B38" s="33">
         <v>23</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="123">
+      <c r="D38" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="153" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="122">
         <v>42290</v>
       </c>
-      <c r="I38" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J38" s="125">
+      <c r="I38" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J38" s="124">
         <v>0.5</v>
       </c>
-      <c r="K38" s="126">
+      <c r="K38" s="125">
         <v>41979</v>
       </c>
-      <c r="L38" s="124">
+      <c r="L38" s="123">
         <v>41840</v>
       </c>
       <c r="M38" s="84">
@@ -7872,34 +7765,34 @@
       <c r="B39" s="33">
         <v>24</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="123">
+      <c r="D39" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="122">
         <v>42290</v>
       </c>
-      <c r="I39" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J39" s="132">
+      <c r="I39" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J39" s="130">
         <v>1.5</v>
       </c>
-      <c r="K39" s="133">
+      <c r="K39" s="131">
         <v>41979</v>
       </c>
-      <c r="L39" s="134">
+      <c r="L39" s="132">
         <v>41840</v>
       </c>
       <c r="M39" s="84">
@@ -7915,31 +7808,31 @@
       <c r="C40" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>265</v>
-      </c>
-      <c r="F40" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" s="123">
+      <c r="D40" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="153" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="122">
         <v>42290</v>
       </c>
-      <c r="I40" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J40" s="125">
+      <c r="I40" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J40" s="124">
         <v>1.5</v>
       </c>
-      <c r="K40" s="126">
+      <c r="K40" s="125">
         <v>41979</v>
       </c>
-      <c r="L40" s="124">
+      <c r="L40" s="123">
         <v>41840</v>
       </c>
       <c r="M40" s="84"/>
@@ -7950,34 +7843,34 @@
       <c r="B41" s="33">
         <v>26</v>
       </c>
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" s="123">
+      <c r="D41" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="122">
         <v>42290</v>
       </c>
-      <c r="I41" s="123">
-        <v>42290</v>
-      </c>
-      <c r="J41" s="125">
+      <c r="I41" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J41" s="124">
         <v>2</v>
       </c>
-      <c r="K41" s="126">
+      <c r="K41" s="125">
         <v>41979</v>
       </c>
-      <c r="L41" s="124">
+      <c r="L41" s="123">
         <v>41840</v>
       </c>
       <c r="M41" s="84">
@@ -7990,24 +7883,28 @@
       <c r="B42" s="33">
         <v>27</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>244</v>
-      </c>
-      <c r="F42" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="105"/>
+      <c r="D42" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I42" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J42" s="104"/>
       <c r="K42" s="83"/>
       <c r="L42" s="83"/>
       <c r="M42" s="84"/>
@@ -8018,24 +7915,28 @@
       <c r="B43" s="33">
         <v>28</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" t="s">
-        <v>245</v>
-      </c>
-      <c r="F43" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="105"/>
+      <c r="D43" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="153" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I43" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J43" s="104"/>
       <c r="K43" s="83"/>
       <c r="L43" s="83"/>
       <c r="M43" s="84"/>
@@ -8046,24 +7947,28 @@
       <c r="B44" s="33">
         <v>29</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" t="s">
-        <v>246</v>
-      </c>
-      <c r="F44" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="105"/>
+      <c r="D44" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I44" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J44" s="104"/>
       <c r="K44" s="83"/>
       <c r="L44" s="83"/>
       <c r="M44" s="84"/>
@@ -8073,24 +7978,28 @@
       <c r="B45" s="33">
         <v>30</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" t="s">
-        <v>247</v>
-      </c>
-      <c r="F45" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="105"/>
+      <c r="D45" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I45" s="149">
+        <v>42327</v>
+      </c>
+      <c r="J45" s="104"/>
       <c r="K45" s="83"/>
       <c r="L45" s="83"/>
       <c r="M45" s="84"/>
@@ -8100,14 +8009,26 @@
       <c r="B46" s="33">
         <v>31</v>
       </c>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="242" t="s">
-        <v>248</v>
+      <c r="D46" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="154" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I46" s="149">
+        <v>42327</v>
       </c>
       <c r="J46" s="85">
         <f>SUM(J16:J45)</f>
@@ -8126,14 +8047,26 @@
       <c r="B47" s="33">
         <v>32</v>
       </c>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>249</v>
+      <c r="D47" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I47" s="149">
+        <v>42327</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="24">
@@ -8141,141 +8074,287 @@
       <c r="B48" s="33">
         <v>33</v>
       </c>
-      <c r="C48" s="119" t="s">
+      <c r="C48" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="24">
+      <c r="D48" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I48" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="24">
       <c r="A49" s="7"/>
       <c r="B49" s="33">
         <v>34</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1">
+      <c r="D49" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I49" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1">
       <c r="B50" s="33">
         <v>35</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C50" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="24">
+      <c r="D50" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G50" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I50" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="24">
       <c r="B51" s="33">
         <v>36</v>
       </c>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="24">
+      <c r="D51" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="153" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I51" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="24">
       <c r="B52" s="33">
         <v>37</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24">
+      <c r="D52" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="151" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I52" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="24">
       <c r="B53" s="33">
         <v>38</v>
       </c>
-      <c r="C53" s="119" t="s">
+      <c r="C53" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="24">
+      <c r="D53" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="153" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I53" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="24">
       <c r="B54" s="33">
         <v>39</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="24">
+      <c r="D54" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I54" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24">
       <c r="B55" s="33">
         <v>40</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="244" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="24">
+      <c r="D55" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I55" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="24">
       <c r="B56" s="33">
         <v>41</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="244" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="24">
+      <c r="D56" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I56" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="24">
       <c r="B57" s="33">
         <v>42</v>
       </c>
-      <c r="C57" s="119" t="s">
+      <c r="C57" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>259</v>
+      <c r="D57" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="156" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I57" s="149">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="24">
+      <c r="B58" s="33">
+        <v>43</v>
+      </c>
+      <c r="C58" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="153" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" s="122">
+        <v>42290</v>
+      </c>
+      <c r="I58" s="149">
+        <v>42327</v>
       </c>
     </row>
   </sheetData>
@@ -8301,10 +8380,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E45">
       <formula1>IF(C42="Fast Track",e_fast,IF(C42="Configuraciones Tipo o Nuevas",e_tipo,IF(C42="Desarrollos Departamentales",e_depar,IF(C42="Desarrollos Adicionales ATIS",e_atis,IF(C42="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D28 D31:D57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D28 D31:D58">
       <formula1>f_depar</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C58">
       <formula1>TipoProy</formula1>
     </dataValidation>
   </dataValidations>
@@ -8321,13 +8400,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -8335,37 +8414,40 @@
     <col min="1" max="1" width="4.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="12" style="14" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="16"/>
+    <col min="4" max="4" width="12.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="12" style="14" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A1" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="175"/>
-    </row>
-    <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="221"/>
+    </row>
+    <row r="2" spans="1:16" s="26" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8379,14 +8461,16 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" ht="10.5" customHeight="1">
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" s="21" customFormat="1" ht="10.5" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" s="25" customFormat="1" ht="60" customHeight="1">
+      <c r="D3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" s="25" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
@@ -8397,1349 +8481,2064 @@
         <v>124</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="I4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>159</v>
-      </c>
       <c r="K4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="88">
         <v>1</v>
       </c>
       <c r="B5" s="89">
-        <v>2</v>
-      </c>
-      <c r="C5" s="90" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="90" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="243" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="90" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F5" s="90" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G5" s="90" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G5" s="93" t="s">
-        <v>182</v>
-      </c>
       <c r="H5" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="J5" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95">
-        <v>41835</v>
-      </c>
-      <c r="M5" s="95">
-        <v>41841</v>
-      </c>
-      <c r="N5" s="96">
+      <c r="K5" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5" s="95">
         <v>1</v>
       </c>
-      <c r="O5" s="109"/>
-    </row>
-    <row r="6" spans="1:15" ht="24">
+      <c r="P5" s="108"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="88">
         <v>2</v>
       </c>
       <c r="B6" s="89">
         <v>1</v>
       </c>
-      <c r="C6" s="90" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="90" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$16:$F$91,5,FALSE)</f>
+      <c r="C6" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="243" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="90" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F6" s="90" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G6" s="90" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>172</v>
-      </c>
       <c r="H6" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="J6" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M6" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N6" s="96">
+      <c r="K6" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6" s="95">
         <v>1</v>
       </c>
-      <c r="O6" s="109"/>
-    </row>
-    <row r="7" spans="1:15" ht="24">
+      <c r="P6" s="108"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="88">
         <v>3</v>
       </c>
       <c r="B7" s="89">
         <v>1</v>
       </c>
-      <c r="C7" s="90" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="90" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$16:$F$91,5,FALSE)</f>
+      <c r="C7" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="243" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="90" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F7" s="90" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G7" s="90" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G7" s="93" t="s">
-        <v>183</v>
-      </c>
       <c r="H7" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="J7" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M7" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N7" s="96">
+      <c r="K7" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N7" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="95">
         <v>1</v>
       </c>
-      <c r="O7" s="109"/>
-    </row>
-    <row r="8" spans="1:15" ht="24">
+      <c r="P7" s="108"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="88">
         <v>4</v>
       </c>
-      <c r="B8" s="135">
-        <v>3</v>
-      </c>
-      <c r="C8" s="136" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="136" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$16:$F$91,5,FALSE)</f>
+      <c r="B8" s="89">
+        <v>1</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="243" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="133" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F8" s="136" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G8" s="133" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G8" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="J8" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141">
-        <v>41835</v>
-      </c>
-      <c r="M8" s="141">
-        <v>41841</v>
-      </c>
-      <c r="N8" s="142">
+      <c r="K8" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="135"/>
+      <c r="M8" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N8" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" s="95">
         <v>1</v>
       </c>
-      <c r="O8" s="143"/>
-    </row>
-    <row r="9" spans="1:15" ht="24">
+      <c r="P8" s="136"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="88">
         <v>5</v>
       </c>
-      <c r="B9" s="135">
-        <v>3</v>
-      </c>
-      <c r="C9" s="136" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="136" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$16:$F$91,5,FALSE)</f>
+      <c r="B9" s="89">
+        <v>1</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="243" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="133" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F9" s="136" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G9" s="133" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G9" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="J9" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="141">
-        <v>41835</v>
-      </c>
-      <c r="M9" s="141">
-        <v>41841</v>
-      </c>
-      <c r="N9" s="142">
+      <c r="K9" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="135"/>
+      <c r="M9" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9" s="95">
         <v>1</v>
       </c>
-      <c r="O9" s="143"/>
-    </row>
-    <row r="10" spans="1:15" ht="24">
+      <c r="P9" s="136"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="88">
         <v>6</v>
       </c>
       <c r="B10" s="89">
-        <v>2</v>
-      </c>
-      <c r="C10" s="90" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="90" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="243" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="90" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F10" s="90" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G10" s="90" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G10" s="93" t="s">
-        <v>189</v>
-      </c>
       <c r="H10" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="J10" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M10" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N10" s="96">
+      <c r="K10" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O10" s="95">
         <v>1</v>
       </c>
-      <c r="O10" s="109"/>
-    </row>
-    <row r="11" spans="1:15" ht="24">
+      <c r="P10" s="108"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="88">
         <v>7</v>
       </c>
       <c r="B11" s="89">
-        <v>2</v>
-      </c>
-      <c r="C11" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="130" t="s">
-        <v>191</v>
+      <c r="D11" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="243" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="90" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G11" s="90" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
       </c>
       <c r="H11" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="J11" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M11" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N11" s="96">
+      <c r="K11" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N11" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11" s="95">
         <v>1</v>
       </c>
-      <c r="O11" s="109"/>
-    </row>
-    <row r="12" spans="1:15" ht="24">
+      <c r="P11" s="108"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="88">
         <v>8</v>
       </c>
       <c r="B12" s="89">
-        <v>2</v>
-      </c>
-      <c r="C12" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>192</v>
+      <c r="D12" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="243" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="90" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G12" s="90" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
       </c>
       <c r="H12" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="J12" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M12" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N12" s="96">
+      <c r="K12" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="95">
         <v>1</v>
       </c>
-      <c r="O12" s="109"/>
-    </row>
-    <row r="13" spans="1:15" ht="24">
+      <c r="P12" s="108"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="88">
         <v>9</v>
       </c>
       <c r="B13" s="89">
-        <v>2</v>
-      </c>
-      <c r="C13" s="90" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="90" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="243" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="90" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F13" s="90" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G13" s="90" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G13" s="93" t="s">
-        <v>194</v>
-      </c>
       <c r="H13" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="J13" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M13" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N13" s="96">
+      <c r="K13" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O13" s="95">
         <v>1</v>
       </c>
-      <c r="O13" s="109"/>
-    </row>
-    <row r="14" spans="1:15" s="144" customFormat="1" ht="24">
+      <c r="P13" s="108"/>
+    </row>
+    <row r="14" spans="1:16" s="137" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="88">
         <v>10</v>
       </c>
-      <c r="B14" s="135">
-        <v>3</v>
-      </c>
-      <c r="C14" s="136" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="136" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$16:$F$91,5,FALSE)</f>
+      <c r="B14" s="89">
+        <v>1</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="243" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="133" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F14" s="136" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G14" s="133" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G14" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="J14" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141">
-        <v>41835</v>
-      </c>
-      <c r="M14" s="141">
-        <v>41841</v>
-      </c>
-      <c r="N14" s="142">
+      <c r="K14" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="135"/>
+      <c r="M14" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" s="95">
         <v>1</v>
       </c>
-      <c r="O14" s="143"/>
-    </row>
-    <row r="15" spans="1:15" ht="24">
+      <c r="P14" s="136"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="88">
         <v>11</v>
       </c>
       <c r="B15" s="89">
-        <v>2</v>
-      </c>
-      <c r="C15" s="90" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="90" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="243" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="90" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F15" s="90" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G15" s="90" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G15" s="93" t="s">
-        <v>176</v>
-      </c>
       <c r="H15" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="J15" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M15" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N15" s="96">
+      <c r="K15" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O15" s="95">
         <v>1</v>
       </c>
-      <c r="O15" s="109"/>
-    </row>
-    <row r="16" spans="1:15" ht="24">
+      <c r="P15" s="108"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="88">
         <v>12</v>
       </c>
       <c r="B16" s="89">
-        <v>2</v>
-      </c>
-      <c r="C16" s="90" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="90" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="90" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F16" s="90" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G16" s="90" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G16" s="93" t="s">
-        <v>178</v>
-      </c>
       <c r="H16" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="J16" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M16" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N16" s="96">
+      <c r="K16" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N16" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="95">
         <v>1</v>
       </c>
-      <c r="O16" s="109"/>
-    </row>
-    <row r="17" spans="1:15" ht="24">
+      <c r="P16" s="108"/>
+    </row>
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="88">
         <v>13</v>
       </c>
       <c r="B17" s="89">
-        <v>2</v>
-      </c>
-      <c r="C17" s="90" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="90" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="243" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="90" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F17" s="90" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G17" s="90" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G17" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H17" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="J17" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95">
-        <v>41814</v>
-      </c>
-      <c r="M17" s="95">
-        <v>41816</v>
-      </c>
-      <c r="N17" s="96">
+      <c r="K17" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O17" s="95">
         <v>1</v>
       </c>
-      <c r="O17" s="109"/>
-    </row>
-    <row r="18" spans="1:15" ht="36" customHeight="1">
+      <c r="P17" s="108"/>
+    </row>
+    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="88">
         <v>14</v>
       </c>
       <c r="B18" s="89">
-        <v>2</v>
-      </c>
-      <c r="C18" s="90" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="90" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="243" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="90" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F18" s="90" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G18" s="90" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G18" s="93" t="s">
-        <v>211</v>
-      </c>
       <c r="H18" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="J18" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M18" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N18" s="96">
+      <c r="K18" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="95">
         <v>1</v>
       </c>
-      <c r="O18" s="109"/>
-    </row>
-    <row r="19" spans="1:15" ht="24">
+      <c r="P18" s="108"/>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="88">
         <v>15</v>
       </c>
       <c r="B19" s="89">
-        <v>2</v>
-      </c>
-      <c r="C19" s="90" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="90" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="243" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="90" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F19" s="90" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G19" s="90" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G19" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H19" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="J19" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M19" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N19" s="96">
-        <v>2</v>
-      </c>
-      <c r="O19" s="109"/>
-    </row>
-    <row r="20" spans="1:15" ht="24">
+      <c r="K19" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="93"/>
+      <c r="M19" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N19" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="95">
+        <v>1</v>
+      </c>
+      <c r="P19" s="108"/>
+    </row>
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="88">
         <v>16</v>
       </c>
       <c r="B20" s="89">
-        <v>2</v>
-      </c>
-      <c r="C20" s="90" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="90" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="243" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="90" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F20" s="90" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G20" s="90" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G20" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H20" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="92" t="s">
+      <c r="J20" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M20" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N20" s="96">
-        <v>3</v>
-      </c>
-      <c r="O20" s="109"/>
-    </row>
-    <row r="21" spans="1:15" ht="24">
+      <c r="K20" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="93"/>
+      <c r="M20" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N20" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O20" s="95">
+        <v>1</v>
+      </c>
+      <c r="P20" s="108"/>
+    </row>
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="88">
         <v>17</v>
       </c>
       <c r="B21" s="89">
-        <v>2</v>
-      </c>
-      <c r="C21" s="90" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="90" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="244" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="90" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F21" s="90" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G21" s="90" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G21" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H21" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="92" t="s">
+      <c r="J21" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M21" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N21" s="96">
-        <v>4</v>
-      </c>
-      <c r="O21" s="109"/>
-    </row>
-    <row r="22" spans="1:15" ht="24">
+      <c r="K21" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" s="93"/>
+      <c r="M21" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O21" s="95">
+        <v>1</v>
+      </c>
+      <c r="P21" s="108"/>
+    </row>
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="88">
         <v>18</v>
       </c>
       <c r="B22" s="89">
-        <v>2</v>
-      </c>
-      <c r="C22" s="90" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="90" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="243" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="90" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F22" s="90" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G22" s="90" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G22" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H22" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="92" t="s">
+      <c r="J22" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M22" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N22" s="96">
-        <v>5</v>
-      </c>
-      <c r="O22" s="109"/>
-    </row>
-    <row r="23" spans="1:15" ht="36">
+      <c r="K22" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="93"/>
+      <c r="M22" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" s="95">
+        <v>1</v>
+      </c>
+      <c r="P22" s="108"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="88">
         <v>19</v>
       </c>
       <c r="B23" s="89">
-        <v>2</v>
-      </c>
-      <c r="C23" s="90" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="90" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="243" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="90" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F23" s="90" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G23" s="90" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G23" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H23" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="92" t="s">
+      <c r="J23" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M23" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N23" s="96">
-        <v>6</v>
-      </c>
-      <c r="O23" s="109"/>
-    </row>
-    <row r="24" spans="1:15" ht="36">
+      <c r="K23" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="93"/>
+      <c r="M23" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N23" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="95">
+        <v>1</v>
+      </c>
+      <c r="P23" s="108"/>
+    </row>
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="88">
         <v>20</v>
       </c>
       <c r="B24" s="89">
-        <v>2</v>
-      </c>
-      <c r="C24" s="90" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="90" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="243" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="90" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F24" s="90" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G24" s="90" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G24" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H24" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="92" t="s">
+      <c r="J24" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M24" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N24" s="96">
-        <v>7</v>
-      </c>
-      <c r="O24" s="109"/>
-    </row>
-    <row r="25" spans="1:15" ht="36">
+      <c r="K24" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="93"/>
+      <c r="M24" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N24" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" s="95">
+        <v>1</v>
+      </c>
+      <c r="P24" s="108"/>
+    </row>
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="88">
         <v>21</v>
       </c>
       <c r="B25" s="89">
-        <v>2</v>
-      </c>
-      <c r="C25" s="90" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="90" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="243" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="90" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F25" s="90" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G25" s="90" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G25" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H25" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="J25" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M25" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N25" s="96">
-        <v>8</v>
-      </c>
-      <c r="O25" s="109"/>
-    </row>
-    <row r="26" spans="1:15" ht="24">
+      <c r="K25" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="93"/>
+      <c r="M25" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N25" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" s="95">
+        <v>1</v>
+      </c>
+      <c r="P25" s="108"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="88">
         <v>22</v>
       </c>
       <c r="B26" s="89">
-        <v>2</v>
-      </c>
-      <c r="C26" s="90" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="90" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="243" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="90" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F26" s="90" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G26" s="90" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G26" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H26" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="92" t="s">
+      <c r="J26" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M26" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N26" s="96">
-        <v>9</v>
-      </c>
-      <c r="O26" s="109"/>
-    </row>
-    <row r="27" spans="1:15" ht="36">
+      <c r="K26" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="93"/>
+      <c r="M26" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N26" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" s="95">
+        <v>1</v>
+      </c>
+      <c r="P26" s="108"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="88">
         <v>23</v>
       </c>
       <c r="B27" s="89">
-        <v>2</v>
-      </c>
-      <c r="C27" s="90" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="90" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="243" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="90" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F27" s="90" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G27" s="90" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G27" s="93" t="s">
-        <v>210</v>
-      </c>
       <c r="H27" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="92" t="s">
+      <c r="J27" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M27" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N27" s="96">
-        <v>10</v>
-      </c>
-      <c r="O27" s="109"/>
-    </row>
-    <row r="28" spans="1:15" ht="24">
+      <c r="K27" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N27" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" s="95">
+        <v>1</v>
+      </c>
+      <c r="P27" s="108"/>
+    </row>
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="88">
         <v>24</v>
       </c>
       <c r="B28" s="89">
-        <v>2</v>
-      </c>
-      <c r="C28" s="90" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$16:$E$91,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D28" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="90" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$16:$F$91,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="243" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="90" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$16:$F$92,5,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="F28" s="90" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$16:$G$91,6,FALSE)</f>
+      <c r="G28" s="90" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$16:$G$92,6,FALSE)</f>
         <v>Julio Leonardo</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="H28" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="93"/>
+      <c r="M28" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N28" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" s="95">
+        <v>1</v>
+      </c>
+      <c r="P28" s="108"/>
+    </row>
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="88">
+        <v>25</v>
+      </c>
+      <c r="B29" s="89">
+        <v>1</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="243" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="90" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G29" s="90" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N29" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="88">
+        <v>26</v>
+      </c>
+      <c r="B30" s="89">
+        <v>1</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="243" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="90" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G30" s="90" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="88">
+        <v>27</v>
+      </c>
+      <c r="B31" s="89">
+        <v>1</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="243" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="90" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G31" s="90" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="88">
+        <v>28</v>
+      </c>
+      <c r="B32" s="89">
+        <v>1</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="243" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="90" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G32" s="90" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M32" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N32" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="88">
+        <v>29</v>
+      </c>
+      <c r="B33" s="89">
+        <v>1</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="243" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="90" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G33" s="90" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H33" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M33" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="88">
+        <v>30</v>
+      </c>
+      <c r="B34" s="89">
+        <v>1</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="243" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="90" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G34" s="90" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="88">
+        <v>31</v>
+      </c>
+      <c r="B35" s="89">
+        <v>1</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="244" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="90" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G35" s="90" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H35" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M35" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N35" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="88">
+        <v>32</v>
+      </c>
+      <c r="B36" s="89">
+        <v>1</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="243" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="90" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G36" s="90" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H36" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M36" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="88">
+        <v>33</v>
+      </c>
+      <c r="B37" s="89">
+        <v>1</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="243" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="90" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G37" s="90" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H37" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="88">
+        <v>34</v>
+      </c>
+      <c r="B38" s="89">
+        <v>1</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="243" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="90" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G38" s="90" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H38" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M38" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N38" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="88">
+        <v>35</v>
+      </c>
+      <c r="B39" s="89">
+        <v>1</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="243" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="90" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G39" s="90" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M39" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N39" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="88">
+        <v>36</v>
+      </c>
+      <c r="B40" s="89">
+        <v>1</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="243" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="90" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G40" s="90" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N40" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="88">
+        <v>37</v>
+      </c>
+      <c r="B41" s="89">
+        <v>1</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="243" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="90" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G41" s="90" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="88">
+        <v>38</v>
+      </c>
+      <c r="B42" s="89">
+        <v>1</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="243" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="90" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G42" s="90" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O42" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="88">
+        <v>39</v>
+      </c>
+      <c r="B43" s="89">
+        <v>1</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="243" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="92" t="s">
+      <c r="F43" s="90" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G43" s="90" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J43" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95">
-        <v>41802</v>
-      </c>
-      <c r="M28" s="95">
-        <v>41807</v>
-      </c>
-      <c r="N28" s="96">
-        <v>11</v>
-      </c>
-      <c r="O28" s="109"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="K43" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N43" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O43" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="88">
+        <v>40</v>
+      </c>
+      <c r="B44" s="89">
+        <v>1</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="243" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="90" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G44" s="90" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M44" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O44" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="88">
+        <v>41</v>
+      </c>
+      <c r="B45" s="89">
+        <v>1</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="245" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="90" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G45" s="90" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H45" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M45" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N45" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O45" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="88">
+        <v>42</v>
+      </c>
+      <c r="B46" s="89">
+        <v>1</v>
+      </c>
+      <c r="C46" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="245" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="90" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G46" s="90" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H46" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M46" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O46" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="88">
+        <v>43</v>
+      </c>
+      <c r="B47" s="89">
+        <v>1</v>
+      </c>
+      <c r="C47" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="243" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="90" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$16:$F$92,5,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="G47" s="90" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$16:$G$92,6,FALSE)</f>
+        <v>Julio Leonardo</v>
+      </c>
+      <c r="H47" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="J47" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M47" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="N47" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O47" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
-      <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="L48" s="16"/>
+      <c r="H48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="H49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
-      <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="L50" s="16"/>
+      <c r="H50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H28">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J47">
       <formula1>Origen</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C47">
+      <formula1>TipoProy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17 D20:D47">
+      <formula1>f_depar</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19">
+      <formula1>IF(C18="Fast Track",f_fast,IF(C18="Configuraciones Tipo o Nuevas",f_tipo,IF(C18="Desarrollos Departamentales",f_depar,IF(C18="Desarrollos Adicionales ATIS",f_atis,IF(C18="Definición de Requerimientos",f_req,f_inci)))))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31:E34">
+      <formula1>IF(C31="Fast Track",e_fast,IF(C31="Configuraciones Tipo o Nuevas",e_tipo,IF(C31="Desarrollos Departamentales",e_depar,IF(C31="Desarrollos Adicionales ATIS",e_atis,IF(C31="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -9758,7 +10557,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -9774,107 +10573,107 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="177" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178" t="str">
+      <c r="C4" s="223" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="223"/>
+      <c r="E4" s="224" t="str">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>Roger Apaestegui Ortega</v>
       </c>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="180"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="226"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="181" t="str">
+      <c r="C5" s="227" t="str">
         <f>Planificación!B10</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="178" t="str">
+      <c r="D5" s="228"/>
+      <c r="E5" s="224" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="180"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="226"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="185"/>
-      <c r="E6" s="178" t="str">
+      <c r="D6" s="231"/>
+      <c r="E6" s="224" t="str">
         <f>IF(Planificación!D11&lt;&gt;"",Planificación!D11,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="188">
+      <c r="D7" s="233"/>
+      <c r="E7" s="234">
         <f>IF(Planificación!D12&lt;&gt;"",Planificación!D12,"")</f>
         <v>42276</v>
       </c>
-      <c r="F7" s="189"/>
-      <c r="G7" s="190" t="s">
+      <c r="F7" s="235"/>
+      <c r="G7" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="97">
+      <c r="H7" s="237"/>
+      <c r="I7" s="96">
         <f>IF(Planificación!F12&lt;&gt;"",Planificación!F12,"")</f>
         <v>42327</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="178" t="str">
+      <c r="D8" s="238"/>
+      <c r="E8" s="224" t="str">
         <f>IF(Planificación!D13&lt;&gt;"",Planificación!D13,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="180"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="186"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9883,46 +10682,46 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <f>COUNTA(Planificación!C16:C45)</f>
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="97">
         <f>D14-D16</f>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="119">
         <f>COUNTA(Planificación!L16:L44)</f>
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="98">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="98">
         <f>1-D17</f>
         <v>0.23333333333333328</v>
       </c>
@@ -9933,35 +10732,35 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="111"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="111"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="111"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="111"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="111"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="183" t="s">
+      <c r="C26" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="183"/>
+      <c r="D26" s="229"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="31" t="s">
@@ -9972,106 +10771,106 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C28)</f>
+      <c r="D28" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C28)</f>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C29)</f>
+      <c r="D29" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C30)</f>
+      <c r="D30" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C31)</f>
+      <c r="D31" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C32)</f>
+      <c r="D32" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C33)</f>
+      <c r="C33" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="121">
         <f>SUM(D28:D33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15">
-      <c r="C40" s="183" t="s">
+      <c r="C40" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="183"/>
+      <c r="D40" s="229"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D41" s="120">
         <f>Planificación!J46</f>
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="121">
+      <c r="D42" s="120">
         <f>Planificación!M46</f>
         <v>39.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="121">
+      <c r="D43" s="120">
         <f>D41-D42</f>
         <v>-2.4000000000000057</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="183" t="s">
+      <c r="C57" s="229" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="183"/>
+      <c r="D57" s="229"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="31" t="s">
@@ -10082,39 +10881,39 @@
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C59)</f>
-        <v>24</v>
+      <c r="D59" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$J$5:$J$141,C59)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C60)</f>
+      <c r="D60" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$J$5:$J$141,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="121">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C61)</f>
+      <c r="D61" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$J$5:$J$141,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="102" t="s">
+      <c r="C62" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="122">
+      <c r="D62" s="121">
         <f>SUM(D59:D61)</f>
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -10174,351 +10973,351 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="102" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="D6" s="104" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="D6" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="240" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="117" t="s">
+      <c r="D7" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="239"/>
+      <c r="K7" s="116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="241"/>
+      <c r="B8" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="239"/>
+      <c r="K8" s="116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="241"/>
+      <c r="B9" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="241"/>
+      <c r="B10" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="J10" s="239" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="241"/>
+      <c r="B11" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="103"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="116" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="194" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="193"/>
-      <c r="K7" s="117" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="241"/>
+      <c r="B12" s="117"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="195"/>
-      <c r="B8" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="193"/>
-      <c r="K8" s="117" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="241"/>
+      <c r="B13" s="114"/>
+      <c r="F13" s="109"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="241"/>
+      <c r="B14" s="114"/>
+      <c r="F14" s="109"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A15" s="242"/>
+      <c r="B15" s="115"/>
+      <c r="F15" s="109"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="116" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="195"/>
-      <c r="B9" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="104"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="117" t="s">
+    <row r="16" spans="1:11">
+      <c r="J16" s="239"/>
+      <c r="K16" s="116" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="195"/>
-      <c r="B10" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="104"/>
-      <c r="J10" s="193" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="117" t="s">
+    <row r="17" spans="10:11">
+      <c r="J17" s="239" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="239"/>
+      <c r="K18" s="116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="239"/>
+      <c r="K19" s="116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="239"/>
+      <c r="K20" s="116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="239"/>
+      <c r="K21" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="239"/>
+      <c r="K22" s="116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="239"/>
+      <c r="K23" s="116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="239"/>
+      <c r="K24" s="116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="239"/>
+      <c r="K25" s="116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="239"/>
+      <c r="K26" s="116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="239" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="239"/>
+      <c r="K28" s="116" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="195"/>
-      <c r="B11" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="104"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="117" t="s">
+    <row r="29" spans="10:11">
+      <c r="J29" s="239"/>
+      <c r="K29" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="239"/>
+      <c r="K30" s="116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="239"/>
+      <c r="K31" s="116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="239"/>
+      <c r="K32" s="116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="239"/>
+      <c r="K33" s="116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="239" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="239"/>
+      <c r="K35" s="116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="239"/>
+      <c r="K36" s="116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="239"/>
+      <c r="K37" s="116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="239"/>
+      <c r="K38" s="116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="239" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="116" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="195"/>
-      <c r="B12" s="118"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="117" t="s">
+    <row r="40" spans="10:11">
+      <c r="J40" s="239"/>
+      <c r="K40" s="116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="195"/>
-      <c r="B13" s="115"/>
-      <c r="F13" s="110"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="117" t="s">
+    <row r="41" spans="10:11">
+      <c r="J41" s="239"/>
+      <c r="K41" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="239"/>
+      <c r="K42" s="116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" s="239"/>
+      <c r="K43" s="116" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="195"/>
-      <c r="B14" s="115"/>
-      <c r="F14" s="110"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="196"/>
-      <c r="B15" s="116"/>
-      <c r="F15" s="110"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="117" t="s">
+    <row r="44" spans="10:11">
+      <c r="J44" s="239"/>
+      <c r="K44" s="116" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="193"/>
-      <c r="K16" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="193"/>
-      <c r="K18" s="117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="193"/>
-      <c r="K19" s="117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="193"/>
-      <c r="K20" s="117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="193"/>
-      <c r="K21" s="117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="193"/>
-      <c r="K22" s="117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="193"/>
-      <c r="K23" s="117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="193"/>
-      <c r="K24" s="117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="193"/>
-      <c r="K25" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="193"/>
-      <c r="K26" s="117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="193" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="193"/>
-      <c r="K28" s="117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="193"/>
-      <c r="K29" s="117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="193"/>
-      <c r="K30" s="117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="193"/>
-      <c r="K31" s="117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="193"/>
-      <c r="K32" s="117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="193"/>
-      <c r="K33" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="193"/>
-      <c r="K35" s="117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="193"/>
-      <c r="K36" s="117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="193"/>
-      <c r="K37" s="117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="193"/>
-      <c r="K38" s="117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="193" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39" s="117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="193"/>
-      <c r="K40" s="117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="193"/>
-      <c r="K41" s="117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="193"/>
-      <c r="K42" s="117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="10:11">
-      <c r="J43" s="193"/>
-      <c r="K43" s="117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="10:11">
-      <c r="J44" s="193"/>
-      <c r="K44" s="117" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="193"/>
-      <c r="K45" s="117" t="s">
+      <c r="J45" s="239"/>
+      <c r="K45" s="116" t="s">
         <v>131</v>
       </c>
     </row>
